--- a/data-raw/extra info/linkage data and lookup table yaml code.xlsx
+++ b/data-raw/extra info/linkage data and lookup table yaml code.xlsx
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3 (2)" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3 (2)" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="1427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="1681">
   <si>
     <t># CHESS data</t>
   </si>
@@ -4309,6 +4310,768 @@
   </si>
   <si>
     <t xml:space="preserve">      (unitbedconfig, description);</t>
+  </si>
+  <si>
+    <t>set role 'role_full_admin';</t>
+  </si>
+  <si>
+    <t># Linkage avilability</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_linkage_availability_hes_e ON cprd_data.linkage_availability (hes_e);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_linkage_availability_death_e ON cprd_data.linkage_availability (death_e);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_linkage_availability_lsoa_e ON cprd_data.linkage_availability (lsoa_e);</t>
+  </si>
+  <si>
+    <t># CHESS</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_patid ON cprd_data.chess (patid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_pracid ON cprd_data.chess (pracid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_n_chess_patid ON cprd_data.chess (n_chess_patid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_trustid ON cprd_data.chess (trustid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_dateofadmission ON cprd_data.chess (weekofadmission,yearofadmission);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_estimateddateonset ON cprd_data.chess (estimateddateonset);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_infectionswabdate ON cprd_data.chess (infectionswabdate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_labtestdate ON cprd_data.chess (labtestdate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_covid19 ON cprd_data.chess (covid19);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_admittedfrom ON cprd_data.chess (admittedfrom);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_dateadmittedicu ON cprd_data.chess (dateadmittedicu);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_dateleavingicu ON cprd_data.chess (dateleavingicu);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_admissionflu ON cprd_data.chess (admissionflu);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_admissioncovid19 ON cprd_data.chess (admissioncovid19);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_ventilatedwhilstadmitteddays ON cprd_data.chess (ventilatedwhilstadmitteddays);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_wasthepatientadmittedtoicu ON cprd_data.chess (wasthepatientadmittedtoicu);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_daysecmo ON cprd_data.chess (daysecmo);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_hospitaladmissiondate ON cprd_data.chess (hospitaladmissiondate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_admissionrsv ON cprd_data.chess (admissionrsv);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_respiratorysupportnone ON cprd_data.chess (respiratorysupportnone);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_oxygenviacannulaeormask ON cprd_data.chess (oxygenviacannulaeormask);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_highflownasaloxygen ON cprd_data.chess (highflownasaloxygen);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_noninvasivemechanicalventilation ON cprd_data.chess (noninvasivemechanicalventilation);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_invasivemechanicalventilation ON cprd_data.chess (invasivemechanicalventilation);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_respiratorysupportecmo ON cprd_data.chess (respiratorysupportecmo);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_anticovid19treatment ON cprd_data.chess (anticovid19treatment);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_chronicrespiratory ON cprd_data.chess (chronicrespiratory);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_asthmarequiring ON cprd_data.chess (asthmarequiring);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_chronicheart ON cprd_data.chess (chronicheart);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_chronicrenal ON cprd_data.chess (chronicrenal);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_chronicliver ON cprd_data.chess (chronicliver);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_chronicneurological ON cprd_data.chess (chronicneurological);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_isdiabetes ON cprd_data.chess (isdiabetes);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_diabetestype ON cprd_data.chess (diabetestype);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_immunosuppressiontreatment ON cprd_data.chess (immunosuppressiontreatment);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_immunosuppressiondisease ON cprd_data.chess (immunosuppressiondisease);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_other ON cprd_data.chess (other);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_obesityclinical ON cprd_data.chess (obesityclinical);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_obesitybmi ON cprd_data.chess (obesitybmi);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_pregnancy ON cprd_data.chess (pregnancy);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_prematurity ON cprd_data.chess (prematurity);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_hypertension ON cprd_data.chess (hypertension);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_travelin14days ON cprd_data.chess (travelin14days);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_worksashealthcareworker ON cprd_data.chess (worksashealthcareworker);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_contactwithconfirmedcovid19case ON cprd_data.chess (contactwithconfirmedcovid19case);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_finaloutcome ON cprd_data.chess (finaloutcome);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_finaloutcomedate ON cprd_data.chess (finaloutcomedate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_transferdestination ON cprd_data.chess (transferdestination);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_causeofdeath ON cprd_data.chess (causeofdeath);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_hospitaladmissionadmittedfrom ON cprd_data.chess (hospitaladmissionadmittedfrom);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_mechanicalinvasiveventilationdur ON cprd_data.chess (mechanicalinvasiveventilationdur);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_asymptomatictesting ON cprd_data.chess (asymptomatictesting);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_patientstillonicu ON cprd_data.chess (patientstillonicu);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_respiratorysupportunknown ON cprd_data.chess (respiratorysupportunknown);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_priorhospitalattendance ON cprd_data.chess (priorhospitalattendance);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_dateofpriorattendance ON cprd_data.chess (dateofpriorattendance);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_admissionnotrelatedtorespiratory ON cprd_data.chess (admissionnotrelatedtorespiratory);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_typeorplaceofwork ON cprd_data.chess (typeorplaceofwork);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_treatmenttocilizumab ON cprd_data.chess (treatmenttocilizumab);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_treatmentremdesivir ON cprd_data.chess (treatmentremdesivir);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_treatmentother ON cprd_data.chess (treatmentother);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_chess_treatmentconvalescentplasma ON cprd_data.chess (treatmentconvalescentplasma);</t>
+  </si>
+  <si>
+    <t>## hes_patient</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_patient_pracid ON cprd_data.hes_patient (pracid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_patient_gen_hesid ON cprd_data.hes_patient (gen_hesid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_patient_n_patid_hes ON cprd_data.hes_patient (n_patid_hes);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_patient_gen_ethnicity ON cprd_data.hes_patient (gen_ethnicity);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_patient_match_rank ON cprd_data.hes_patient (match_rank);</t>
+  </si>
+  <si>
+    <t>## hes_hospital</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_hospital_patid ON cprd_data.hes_hospital (patid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_hospital_spno ON cprd_data.hes_hospital (spno);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_hospital_admidate ON cprd_data.hes_hospital (admidate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_hospital_discharged ON cprd_data.hes_hospital (discharged);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_hospital_admimeth ON cprd_data.hes_hospital (admimeth);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_hospital_admisorc ON cprd_data.hes_hospital (admisorc);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_hospital_disdest ON cprd_data.hes_hospital (disdest);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_hospital_dismeth ON cprd_data.hes_hospital (dismeth);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_hospital_duration ON cprd_data.hes_hospital (duration);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_hospital_elecdate ON cprd_data.hes_hospital (elecdate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_hospital_elecdur ON cprd_data.hes_hospital (elecdur);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_patid ON cprd_data.hes_episodes (patid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_spno ON cprd_data.hes_episodes (spno);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_epikey ON cprd_data.hes_episodes (epikey);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_admidate ON cprd_data.hes_episodes (admidate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_epistart ON cprd_data.hes_episodes (epistart);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_epiend ON cprd_data.hes_episodes (epiend);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_discharged ON cprd_data.hes_episodes (discharged);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_eorder ON cprd_data.hes_episodes (eorder);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_epidur ON cprd_data.hes_episodes (epidur);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_epitype ON cprd_data.hes_episodes (epitype);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_admimeth ON cprd_data.hes_episodes (admimeth);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_admisorc ON cprd_data.hes_episodes (admisorc);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_disdest ON cprd_data.hes_episodes (disdest);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_dismeth ON cprd_data.hes_episodes (dismeth);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_mainspef ON cprd_data.hes_episodes (mainspef);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_tretspef ON cprd_data.hes_episodes (tretspef);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_pconsult ON cprd_data.hes_episodes (pconsult);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_intmanig ON cprd_data.hes_episodes (intmanig);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_classpat ON cprd_data.hes_episodes (classpat);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_firstreg ON cprd_data.hes_episodes (firstreg);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_episodes_ethnos ON cprd_data.hes_episodes (ethnos);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_epi_patid ON cprd_data.hes_diagnosis_epi (patid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_epi_spno ON cprd_data.hes_diagnosis_epi (spno);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_epi_epikey ON cprd_data.hes_diagnosis_epi (epikey);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_epi_epistart ON cprd_data.hes_diagnosis_epi (epistart);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_epi_epiend ON cprd_data.hes_diagnosis_epi (epiend);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_epi_ICD ON cprd_data.hes_diagnosis_epi (ICD);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_epi_ICDx ON cprd_data.hes_diagnosis_epi (ICDx);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_epi_d_order ON cprd_data.hes_diagnosis_epi (d_order);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_hosp_patid ON cprd_data.hes_diagnosis_hosp (patid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_hosp_spno ON cprd_data.hes_diagnosis_hosp (spno);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_hosp_admidate ON cprd_data.hes_diagnosis_hosp (admidate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_hosp_discharged ON cprd_data.hes_diagnosis_hosp (discharged);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_hosp_ICD ON cprd_data.hes_diagnosis_hosp (ICD);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_diagnosis_hosp_ICDx ON cprd_data.hes_diagnosis_hosp (ICDx);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_primary_diag_hosp_patid ON cprd_data.hes_primary_diag_hosp (patid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_primary_diag_hosp_spno ON cprd_data.hes_primary_diag_hosp (spno);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_primary_diag_hosp_admidate ON cprd_data.hes_primary_diag_hosp (admidate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_primary_diag_hosp_discharged ON cprd_data.hes_primary_diag_hosp (discharged);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_primary_diag_hosp_ICD_PRIMARY ON cprd_data.hes_primary_diag_hosp (ICD_PRIMARY);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_primary_diag_hosp_ICDx ON cprd_data.hes_primary_diag_hosp (ICDx);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_procedures_epi_patid ON cprd_data.hes_procedures_epi (patid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_procedures_epi_spno ON cprd_data.hes_procedures_epi (spno);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_procedures_epi_epikey ON cprd_data.hes_procedures_epi (epikey);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_procedures_epi_admidate ON cprd_data.hes_procedures_epi (admidate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_procedures_epi_epistart ON cprd_data.hes_procedures_epi (epistart);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_procedures_epi_epiend ON cprd_data.hes_procedures_epi (epiend);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_procedures_epi_discharged ON cprd_data.hes_procedures_epi (discharged);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_procedures_epi_OPCS ON cprd_data.hes_procedures_epi (OPCS);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_procedures_epi_evdate ON cprd_data.hes_procedures_epi (evdate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_procedures_epi_p_order ON cprd_data.hes_procedures_epi (p_order);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_patid ON cprd_data.hes_acp (patid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_spno ON cprd_data.hes_acp (spno);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_epikey ON cprd_data.hes_acp (epikey);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_epistart ON cprd_data.hes_acp (epistart);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_epiend ON cprd_data.hes_acp (epiend);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_eorder ON cprd_data.hes_acp (eorder);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_epidur ON cprd_data.hes_acp (epidur);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_numacp ON cprd_data.hes_acp (numacp);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_acpn ON cprd_data.hes_acp (acpn);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_acpstar ON cprd_data.hes_acp (acpstar);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_acpend ON cprd_data.hes_acp (acpend);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_acpdur ON cprd_data.hes_acp (acpdur);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_intdays ON cprd_data.hes_acp (intdays);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_depdays ON cprd_data.hes_acp (depdays);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_acploc ON cprd_data.hes_acp (acploc);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_acpsour ON cprd_data.hes_acp (acpsour);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_acpdisp ON cprd_data.hes_acp (acpdisp);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_acpout ON cprd_data.hes_acp (acpout);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_acpplan ON cprd_data.hes_acp (acpplan);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_acpspef ON cprd_data.hes_acp (acpspef);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_acp_orgsup ON cprd_data.hes_acp (orgsup);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_patid ON cprd_data.hes_ccare (patid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_spno ON cprd_data.hes_ccare (spno);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_epikey ON cprd_data.hes_ccare (epikey);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_admidate ON cprd_data.hes_ccare (admidate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_discharged ON cprd_data.hes_ccare (discharged);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_epistart ON cprd_data.hes_ccare (epistart);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_epiend ON cprd_data.hes_ccare (epiend);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_eorder ON cprd_data.hes_ccare (eorder);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccstartdate ON cprd_data.hes_ccare (ccstartdate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccstarttime ON cprd_data.hes_ccare (ccstarttime);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccdisrdydate ON cprd_data.hes_ccare (ccdisrdydate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccdisrdytime ON cprd_data.hes_ccare (ccdisrdytime);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccdisdate ON cprd_data.hes_ccare (ccdisdate);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccdistime ON cprd_data.hes_ccare (ccdistime);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccadmitype ON cprd_data.hes_ccare (ccadmitype);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccadmisorc ON cprd_data.hes_ccare (ccadmisorc);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccsorcloc ON cprd_data.hes_ccare (ccsorcloc);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccdisstat ON cprd_data.hes_ccare (ccdisstat);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccdisdest ON cprd_data.hes_ccare (ccdisdest);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccdisloc ON cprd_data.hes_ccare (ccdisloc);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_cclev2days ON cprd_data.hes_ccare (cclev2days);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_cclev3days ON cprd_data.hes_ccare (cclev3days);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_bcardsupdays ON cprd_data.hes_ccare (bcardsupdays);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_acardsupdays ON cprd_data.hes_ccare (acardsupdays);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_bressupdays ON cprd_data.hes_ccare (bressupdays);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_aressupdays ON cprd_data.hes_ccare (aressupdays);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_gisupdays ON cprd_data.hes_ccare (gisupdays);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_liversupdays ON cprd_data.hes_ccare (liversupdays);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_neurosupdays ON cprd_data.hes_ccare (neurosupdays);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_rensupdays ON cprd_data.hes_ccare (rensupdays);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_dermsupdays ON cprd_data.hes_ccare (dermsupdays);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_orgsupmax ON cprd_data.hes_ccare (orgsupmax);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccunitfun ON cprd_data.hes_ccare (ccunitfun);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_unitbedconfig ON cprd_data.hes_ccare (unitbedconfig);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_bestmatch ON cprd_data.hes_ccare (bestmatch);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_hes_ccare_ccapcrel ON cprd_data.hes_ccare (ccapcrel);</t>
+  </si>
+  <si>
+    <t>## patient_imd2015</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_patient_imd2015_pracid ON cprd_data.patient_imd2015 (pracid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_patient_imd2015_imd2015_10 ON cprd_data.patient_imd2015 (imd2015_10);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_practice_imd_country ON cprd_data.practice_imd (country);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_practice_imd_e2015_imd_10 ON cprd_data.practice_imd (e2015_imd_10);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_practice_imd_ni2017_imd_10 ON cprd_data.practice_imd (ni2017_imd_10);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_practice_imd_s2016_imd_10 ON cprd_data.practice_imd (s2016_imd_10);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_practice_imd_w2014_imd_10 ON cprd_data.practice_imd (w2014_imd_10);</t>
+  </si>
+  <si>
+    <t># ONS death</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_pracid ON cprd_data.ons_death (pracid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_gen_death_id ON cprd_data.ons_death (gen_death_id);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_n_patid_death ON cprd_data.ons_death (n_patid_death);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_match_rank ON cprd_data.ons_death (match_rank);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_dor ON cprd_data.ons_death (dor);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_dod ON cprd_data.ons_death (dod);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_dod_partial ON cprd_data.ons_death (dod_partial);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_nhs_indicator ON cprd_data.ons_death (nhs_indicator);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_pod_category ON cprd_data.ons_death (pod_category);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause ON cprd_data.ons_death (cause);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause1 ON cprd_data.ons_death (cause1);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause2 ON cprd_data.ons_death (cause2);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause3 ON cprd_data.ons_death (cause3);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause4 ON cprd_data.ons_death (cause4);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause5 ON cprd_data.ons_death (cause5);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause6 ON cprd_data.ons_death (cause6);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause7 ON cprd_data.ons_death (cause7);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause8 ON cprd_data.ons_death (cause8);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause9 ON cprd_data.ons_death (cause9);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause10 ON cprd_data.ons_death (cause10);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause11 ON cprd_data.ons_death (cause11);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause12 ON cprd_data.ons_death (cause12);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause13 ON cprd_data.ons_death (cause13);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause14 ON cprd_data.ons_death (cause14);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_ons_death_cause15 ON cprd_data.ons_death (cause15);</t>
+  </si>
+  <si>
+    <t># SGSS</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_sgss_patid ON cprd_data.sgss (patid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_sgss_pracid ON cprd_data.sgss (pracid);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_sgss_n_patid_spec ON cprd_data.sgss (n_patid_spec);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_sgss_pseudo_specimen_id ON cprd_data.sgss (pseudo_specimen_id);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_sgss_organism_species_name ON cprd_data.sgss (organism_species_name);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_sgss_lab_report_date ON cprd_data.sgss (lab_report_date);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_sgss_age_in_years ON cprd_data.sgss (age_in_years);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_sgss_reporting_lab_id ON cprd_data.sgss (reporting_lab_id);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_sgss_specimen_date ON cprd_data.sgss (specimen_date);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX x_sgss_care_home ON cprd_data.sgss (care_home);</t>
+  </si>
+  <si>
+    <t>linkageAvailability</t>
+  </si>
+  <si>
+    <t>chess</t>
+  </si>
+  <si>
+    <t>hesAcp</t>
+  </si>
+  <si>
+    <t>hesPatient</t>
+  </si>
+  <si>
+    <t>hesHospital</t>
+  </si>
+  <si>
+    <t>hesEpisodes</t>
+  </si>
+  <si>
+    <t>hesDiagnosisEpi</t>
+  </si>
+  <si>
+    <t>hesDiagnosisHosp</t>
+  </si>
+  <si>
+    <t>hesPrimaryDiagHosp</t>
+  </si>
+  <si>
+    <t>hesProceduresEpi</t>
+  </si>
+  <si>
+    <t>hesCcare</t>
+  </si>
+  <si>
+    <t>patientImd2015</t>
+  </si>
+  <si>
+    <t>practiceImd</t>
+  </si>
+  <si>
+    <t>onsDeath</t>
+  </si>
+  <si>
+    <t>sgss</t>
   </si>
 </sst>
 </file>
@@ -13677,9 +14440,4834 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F248"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="F239" sqref="F239:F248"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="99.5546875" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F3" t="str">
+        <f>"  # "&amp;E3</f>
+        <v xml:space="preserve">  # linkageAvailability</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B4">
+        <f>FIND("(",A4)</f>
+        <v>77</v>
+      </c>
+      <c r="C4" t="str">
+        <f>MID(A4,B4+1,LEN(A4)-2-B4)</f>
+        <v>hes_e</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F4" t="str">
+        <f>"  - CREATE INDEX x_{"&amp;E4&amp;"}_"&amp;C4&amp;" ON {dataDb}.{"&amp;E4&amp;"} ("&amp;C4&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{linkageAvailability}_hes_e ON {dataDb}.{linkageAvailability} (hes_e);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B66" si="0">FIND("(",A5)</f>
+        <v>79</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C17" si="1">MID(A5,B5+1,LEN(A5)-2-B5)</f>
+        <v>death_e</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F6" si="2">"  - CREATE INDEX x_{"&amp;E5&amp;"}_"&amp;C5&amp;" ON {dataDb}.{"&amp;E5&amp;"} ("&amp;C5&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{linkageAvailability}_death_e ON {dataDb}.{linkageAvailability} (death_e);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>lsoa_e</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{linkageAvailability}_lsoa_e ON {dataDb}.{linkageAvailability} (lsoa_e);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F7" t="str">
+        <f>"  # "&amp;E7</f>
+        <v xml:space="preserve">  # chess</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>patid</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F8" t="str">
+        <f>"  - CREATE INDEX x_{"&amp;E8&amp;"}_"&amp;C8&amp;" ON {dataDb}.{"&amp;E8&amp;"} ("&amp;C8&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_patid ON {dataDb}.{chess} (patid);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>pracid</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ref="F9:F69" si="3">"  - CREATE INDEX x_{"&amp;E9&amp;"}_"&amp;C9&amp;" ON {dataDb}.{"&amp;E9&amp;"} ("&amp;C9&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_pracid ON {dataDb}.{chess} (pracid);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>n_chess_patid</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_n_chess_patid ON {dataDb}.{chess} (n_chess_patid);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>trustid</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_trustid ON {dataDb}.{chess} (trustid);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>weekofadmission,yearofadmission</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_weekofadmission,yearofadmission ON {dataDb}.{chess} (weekofadmission,yearofadmission);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>estimateddateonset</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_estimateddateonset ON {dataDb}.{chess} (estimateddateonset);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>infectionswabdate</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_infectionswabdate ON {dataDb}.{chess} (infectionswabdate);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>labtestdate</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_labtestdate ON {dataDb}.{chess} (labtestdate);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>covid19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_covid19 ON {dataDb}.{chess} (covid19);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>admittedfrom</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_admittedfrom ON {dataDb}.{chess} (admittedfrom);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ref="C18:C77" si="4">MID(A18,B18+1,LEN(A18)-2-B18)</f>
+        <v>dateadmittedicu</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_dateadmittedicu ON {dataDb}.{chess} (dateadmittedicu);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="4"/>
+        <v>dateleavingicu</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_dateleavingicu ON {dataDb}.{chess} (dateleavingicu);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="4"/>
+        <v>admissionflu</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_admissionflu ON {dataDb}.{chess} (admissionflu);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="4"/>
+        <v>admissioncovid19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_admissioncovid19 ON {dataDb}.{chess} (admissioncovid19);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="4"/>
+        <v>ventilatedwhilstadmitteddays</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_ventilatedwhilstadmitteddays ON {dataDb}.{chess} (ventilatedwhilstadmitteddays);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="4"/>
+        <v>wasthepatientadmittedtoicu</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_wasthepatientadmittedtoicu ON {dataDb}.{chess} (wasthepatientadmittedtoicu);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="4"/>
+        <v>daysecmo</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_daysecmo ON {dataDb}.{chess} (daysecmo);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="4"/>
+        <v>hospitaladmissiondate</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_hospitaladmissiondate ON {dataDb}.{chess} (hospitaladmissiondate);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="4"/>
+        <v>admissionrsv</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_admissionrsv ON {dataDb}.{chess} (admissionrsv);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="4"/>
+        <v>respiratorysupportnone</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_respiratorysupportnone ON {dataDb}.{chess} (respiratorysupportnone);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="4"/>
+        <v>oxygenviacannulaeormask</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_oxygenviacannulaeormask ON {dataDb}.{chess} (oxygenviacannulaeormask);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="4"/>
+        <v>highflownasaloxygen</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_highflownasaloxygen ON {dataDb}.{chess} (highflownasaloxygen);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="4"/>
+        <v>noninvasivemechanicalventilation</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_noninvasivemechanicalventilation ON {dataDb}.{chess} (noninvasivemechanicalventilation);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="4"/>
+        <v>invasivemechanicalventilation</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_invasivemechanicalventilation ON {dataDb}.{chess} (invasivemechanicalventilation);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="4"/>
+        <v>respiratorysupportecmo</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_respiratorysupportecmo ON {dataDb}.{chess} (respiratorysupportecmo);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="4"/>
+        <v>anticovid19treatment</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_anticovid19treatment ON {dataDb}.{chess} (anticovid19treatment);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="4"/>
+        <v>chronicrespiratory</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_chronicrespiratory ON {dataDb}.{chess} (chronicrespiratory);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="4"/>
+        <v>asthmarequiring</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_asthmarequiring ON {dataDb}.{chess} (asthmarequiring);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="4"/>
+        <v>chronicheart</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_chronicheart ON {dataDb}.{chess} (chronicheart);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="4"/>
+        <v>chronicrenal</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_chronicrenal ON {dataDb}.{chess} (chronicrenal);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="4"/>
+        <v>chronicliver</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_chronicliver ON {dataDb}.{chess} (chronicliver);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="4"/>
+        <v>chronicneurological</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_chronicneurological ON {dataDb}.{chess} (chronicneurological);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="4"/>
+        <v>isdiabetes</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_isdiabetes ON {dataDb}.{chess} (isdiabetes);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="4"/>
+        <v>diabetestype</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_diabetestype ON {dataDb}.{chess} (diabetestype);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="4"/>
+        <v>immunosuppressiontreatment</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_immunosuppressiontreatment ON {dataDb}.{chess} (immunosuppressiontreatment);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="4"/>
+        <v>immunosuppressiondisease</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_immunosuppressiondisease ON {dataDb}.{chess} (immunosuppressiondisease);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="4"/>
+        <v>other</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_other ON {dataDb}.{chess} (other);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="4"/>
+        <v>obesityclinical</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_obesityclinical ON {dataDb}.{chess} (obesityclinical);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="4"/>
+        <v>obesitybmi</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_obesitybmi ON {dataDb}.{chess} (obesitybmi);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="4"/>
+        <v>pregnancy</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_pregnancy ON {dataDb}.{chess} (pregnancy);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="4"/>
+        <v>prematurity</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_prematurity ON {dataDb}.{chess} (prematurity);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="4"/>
+        <v>hypertension</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_hypertension ON {dataDb}.{chess} (hypertension);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="4"/>
+        <v>travelin14days</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_travelin14days ON {dataDb}.{chess} (travelin14days);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="4"/>
+        <v>worksashealthcareworker</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_worksashealthcareworker ON {dataDb}.{chess} (worksashealthcareworker);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="4"/>
+        <v>contactwithconfirmedcovid19case</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_contactwithconfirmedcovid19case ON {dataDb}.{chess} (contactwithconfirmedcovid19case);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="4"/>
+        <v>finaloutcome</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_finaloutcome ON {dataDb}.{chess} (finaloutcome);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="4"/>
+        <v>finaloutcomedate</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_finaloutcomedate ON {dataDb}.{chess} (finaloutcomedate);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="4"/>
+        <v>transferdestination</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_transferdestination ON {dataDb}.{chess} (transferdestination);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="4"/>
+        <v>causeofdeath</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_causeofdeath ON {dataDb}.{chess} (causeofdeath);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="4"/>
+        <v>hospitaladmissionadmittedfrom</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_hospitaladmissionadmittedfrom ON {dataDb}.{chess} (hospitaladmissionadmittedfrom);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="4"/>
+        <v>mechanicalinvasiveventilationdur</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_mechanicalinvasiveventilationdur ON {dataDb}.{chess} (mechanicalinvasiveventilationdur);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="4"/>
+        <v>asymptomatictesting</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_asymptomatictesting ON {dataDb}.{chess} (asymptomatictesting);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="4"/>
+        <v>patientstillonicu</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_patientstillonicu ON {dataDb}.{chess} (patientstillonicu);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="4"/>
+        <v>respiratorysupportunknown</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_respiratorysupportunknown ON {dataDb}.{chess} (respiratorysupportunknown);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="4"/>
+        <v>priorhospitalattendance</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_priorhospitalattendance ON {dataDb}.{chess} (priorhospitalattendance);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="4"/>
+        <v>dateofpriorattendance</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_dateofpriorattendance ON {dataDb}.{chess} (dateofpriorattendance);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="4"/>
+        <v>admissionnotrelatedtorespiratory</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_admissionnotrelatedtorespiratory ON {dataDb}.{chess} (admissionnotrelatedtorespiratory);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="4"/>
+        <v>typeorplaceofwork</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_typeorplaceofwork ON {dataDb}.{chess} (typeorplaceofwork);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="4"/>
+        <v>treatmenttocilizumab</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_treatmenttocilizumab ON {dataDb}.{chess} (treatmenttocilizumab);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B123" si="5">FIND("(",A67)</f>
+        <v>61</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="4"/>
+        <v>treatmentremdesivir</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_treatmentremdesivir ON {dataDb}.{chess} (treatmentremdesivir);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="4"/>
+        <v>treatmentother</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_treatmentother ON {dataDb}.{chess} (treatmentother);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="4"/>
+        <v>treatmentconvalescentplasma</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{chess}_treatmentconvalescentplasma ON {dataDb}.{chess} (treatmentconvalescentplasma);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F70" t="str">
+        <f>"  # "&amp;E70</f>
+        <v xml:space="preserve">  # hesPatient</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="4"/>
+        <v>pracid</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F71" t="str">
+        <f>"  - CREATE INDEX x_{"&amp;E71&amp;"}_"&amp;C71&amp;" ON {dataDb}.{"&amp;E71&amp;"} ("&amp;C71&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesPatient}_pracid ON {dataDb}.{hesPatient} (pracid);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="4"/>
+        <v>gen_hesid</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" ref="F72:F75" si="6">"  - CREATE INDEX x_{"&amp;E72&amp;"}_"&amp;C72&amp;" ON {dataDb}.{"&amp;E72&amp;"} ("&amp;C72&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesPatient}_gen_hesid ON {dataDb}.{hesPatient} (gen_hesid);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="4"/>
+        <v>n_patid_hes</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesPatient}_n_patid_hes ON {dataDb}.{hesPatient} (n_patid_hes);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="4"/>
+        <v>gen_ethnicity</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesPatient}_gen_ethnicity ON {dataDb}.{hesPatient} (gen_ethnicity);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="4"/>
+        <v>match_rank</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesPatient}_match_rank ON {dataDb}.{hesPatient} (match_rank);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F76" t="str">
+        <f>"  # "&amp;E76</f>
+        <v xml:space="preserve">  # hesHospital</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="4"/>
+        <v>patid</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" ref="F77:F87" si="7">"  - CREATE INDEX x_{"&amp;E77&amp;"}_"&amp;C77&amp;" ON {dataDb}.{"&amp;E77&amp;"} ("&amp;C77&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesHospital}_patid ON {dataDb}.{hesHospital} (patid);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" ref="C78:C136" si="8">MID(A78,B78+1,LEN(A78)-2-B78)</f>
+        <v>spno</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesHospital}_spno ON {dataDb}.{hesHospital} (spno);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="8"/>
+        <v>admidate</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesHospital}_admidate ON {dataDb}.{hesHospital} (admidate);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="8"/>
+        <v>discharged</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesHospital}_discharged ON {dataDb}.{hesHospital} (discharged);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="8"/>
+        <v>admimeth</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesHospital}_admimeth ON {dataDb}.{hesHospital} (admimeth);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="8"/>
+        <v>admisorc</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesHospital}_admisorc ON {dataDb}.{hesHospital} (admisorc);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="8"/>
+        <v>disdest</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesHospital}_disdest ON {dataDb}.{hesHospital} (disdest);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="8"/>
+        <v>dismeth</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesHospital}_dismeth ON {dataDb}.{hesHospital} (dismeth);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="8"/>
+        <v>duration</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesHospital}_duration ON {dataDb}.{hesHospital} (duration);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="8"/>
+        <v>elecdate</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesHospital}_elecdate ON {dataDb}.{hesHospital} (elecdate);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="8"/>
+        <v>elecdur</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesHospital}_elecdur ON {dataDb}.{hesHospital} (elecdur);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>222</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F88" t="str">
+        <f>"  # "&amp;E88</f>
+        <v xml:space="preserve">  # hesEpisodes</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="8"/>
+        <v>patid</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" ref="F89:F109" si="9">"  - CREATE INDEX x_{"&amp;E89&amp;"}_"&amp;C89&amp;" ON {dataDb}.{"&amp;E89&amp;"} ("&amp;C89&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_patid ON {dataDb}.{hesEpisodes} (patid);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="8"/>
+        <v>spno</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_spno ON {dataDb}.{hesEpisodes} (spno);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="8"/>
+        <v>epikey</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_epikey ON {dataDb}.{hesEpisodes} (epikey);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="8"/>
+        <v>admidate</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_admidate ON {dataDb}.{hesEpisodes} (admidate);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="8"/>
+        <v>epistart</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_epistart ON {dataDb}.{hesEpisodes} (epistart);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="8"/>
+        <v>epiend</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_epiend ON {dataDb}.{hesEpisodes} (epiend);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="8"/>
+        <v>discharged</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_discharged ON {dataDb}.{hesEpisodes} (discharged);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="8"/>
+        <v>eorder</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_eorder ON {dataDb}.{hesEpisodes} (eorder);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="8"/>
+        <v>epidur</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_epidur ON {dataDb}.{hesEpisodes} (epidur);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="8"/>
+        <v>epitype</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_epitype ON {dataDb}.{hesEpisodes} (epitype);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="8"/>
+        <v>admimeth</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_admimeth ON {dataDb}.{hesEpisodes} (admimeth);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="8"/>
+        <v>admisorc</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_admisorc ON {dataDb}.{hesEpisodes} (admisorc);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="8"/>
+        <v>disdest</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_disdest ON {dataDb}.{hesEpisodes} (disdest);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="8"/>
+        <v>dismeth</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_dismeth ON {dataDb}.{hesEpisodes} (dismeth);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="8"/>
+        <v>mainspef</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_mainspef ON {dataDb}.{hesEpisodes} (mainspef);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="8"/>
+        <v>tretspef</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_tretspef ON {dataDb}.{hesEpisodes} (tretspef);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="8"/>
+        <v>pconsult</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_pconsult ON {dataDb}.{hesEpisodes} (pconsult);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="8"/>
+        <v>intmanig</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_intmanig ON {dataDb}.{hesEpisodes} (intmanig);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="8"/>
+        <v>classpat</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_classpat ON {dataDb}.{hesEpisodes} (classpat);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="8"/>
+        <v>firstreg</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_firstreg ON {dataDb}.{hesEpisodes} (firstreg);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="8"/>
+        <v>ethnos</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesEpisodes}_ethnos ON {dataDb}.{hesEpisodes} (ethnos);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>256</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F110" t="str">
+        <f>"  # "&amp;E110</f>
+        <v xml:space="preserve">  # hesDiagnosisEpi</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="8"/>
+        <v>patid</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" ref="F111:F118" si="10">"  - CREATE INDEX x_{"&amp;E111&amp;"}_"&amp;C111&amp;" ON {dataDb}.{"&amp;E111&amp;"} ("&amp;C111&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisEpi}_patid ON {dataDb}.{hesDiagnosisEpi} (patid);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="8"/>
+        <v>spno</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisEpi}_spno ON {dataDb}.{hesDiagnosisEpi} (spno);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="8"/>
+        <v>epikey</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisEpi}_epikey ON {dataDb}.{hesDiagnosisEpi} (epikey);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="8"/>
+        <v>epistart</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisEpi}_epistart ON {dataDb}.{hesDiagnosisEpi} (epistart);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="8"/>
+        <v>epiend</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisEpi}_epiend ON {dataDb}.{hesDiagnosisEpi} (epiend);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="8"/>
+        <v>ICD</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisEpi}_ICD ON {dataDb}.{hesDiagnosisEpi} (ICD);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="8"/>
+        <v>ICDx</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisEpi}_ICDx ON {dataDb}.{hesDiagnosisEpi} (ICDx);</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="8"/>
+        <v>d_order</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisEpi}_d_order ON {dataDb}.{hesDiagnosisEpi} (d_order);</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>265</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F119" t="str">
+        <f>"  # "&amp;E119</f>
+        <v xml:space="preserve">  # hesDiagnosisHosp</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="8"/>
+        <v>patid</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" ref="F120:F125" si="11">"  - CREATE INDEX x_{"&amp;E120&amp;"}_"&amp;C120&amp;" ON {dataDb}.{"&amp;E120&amp;"} ("&amp;C120&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisHosp}_patid ON {dataDb}.{hesDiagnosisHosp} (patid);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="8"/>
+        <v>spno</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisHosp}_spno ON {dataDb}.{hesDiagnosisHosp} (spno);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="8"/>
+        <v>admidate</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisHosp}_admidate ON {dataDb}.{hesDiagnosisHosp} (admidate);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="8"/>
+        <v>discharged</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisHosp}_discharged ON {dataDb}.{hesDiagnosisHosp} (discharged);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ref="B124:B183" si="12">FIND("(",A124)</f>
+        <v>71</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="8"/>
+        <v>ICD</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisHosp}_ICD ON {dataDb}.{hesDiagnosisHosp} (ICD);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="8"/>
+        <v>ICDx</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesDiagnosisHosp}_ICDx ON {dataDb}.{hesDiagnosisHosp} (ICDx);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>271</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F126" t="str">
+        <f>"  # "&amp;E126</f>
+        <v xml:space="preserve">  # hesPrimaryDiagHosp</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="8"/>
+        <v>patid</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" ref="F127:F132" si="13">"  - CREATE INDEX x_{"&amp;E127&amp;"}_"&amp;C127&amp;" ON {dataDb}.{"&amp;E127&amp;"} ("&amp;C127&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesPrimaryDiagHosp}_patid ON {dataDb}.{hesPrimaryDiagHosp} (patid);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="8"/>
+        <v>spno</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesPrimaryDiagHosp}_spno ON {dataDb}.{hesPrimaryDiagHosp} (spno);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="12"/>
+        <v>82</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="8"/>
+        <v>admidate</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesPrimaryDiagHosp}_admidate ON {dataDb}.{hesPrimaryDiagHosp} (admidate);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="8"/>
+        <v>discharged</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesPrimaryDiagHosp}_discharged ON {dataDb}.{hesPrimaryDiagHosp} (discharged);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="8"/>
+        <v>ICD_PRIMARY</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesPrimaryDiagHosp}_ICD_PRIMARY ON {dataDb}.{hesPrimaryDiagHosp} (ICD_PRIMARY);</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="8"/>
+        <v>ICDx</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F132" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesPrimaryDiagHosp}_ICDx ON {dataDb}.{hesPrimaryDiagHosp} (ICDx);</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>277</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F133" t="str">
+        <f>"  # "&amp;E133</f>
+        <v xml:space="preserve">  # hesProceduresEpi</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="8"/>
+        <v>patid</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" ref="F134:F143" si="14">"  - CREATE INDEX x_{"&amp;E134&amp;"}_"&amp;C134&amp;" ON {dataDb}.{"&amp;E134&amp;"} ("&amp;C134&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesProceduresEpi}_patid ON {dataDb}.{hesProceduresEpi} (patid);</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="8"/>
+        <v>spno</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesProceduresEpi}_spno ON {dataDb}.{hesProceduresEpi} (spno);</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="8"/>
+        <v>epikey</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesProceduresEpi}_epikey ON {dataDb}.{hesProceduresEpi} (epikey);</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" ref="C137:C198" si="15">MID(A137,B137+1,LEN(A137)-2-B137)</f>
+        <v>admidate</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesProceduresEpi}_admidate ON {dataDb}.{hesProceduresEpi} (admidate);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="15"/>
+        <v>epistart</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesProceduresEpi}_epistart ON {dataDb}.{hesProceduresEpi} (epistart);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="15"/>
+        <v>epiend</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesProceduresEpi}_epiend ON {dataDb}.{hesProceduresEpi} (epiend);</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="15"/>
+        <v>discharged</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesProceduresEpi}_discharged ON {dataDb}.{hesProceduresEpi} (discharged);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="15"/>
+        <v>OPCS</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesProceduresEpi}_OPCS ON {dataDb}.{hesProceduresEpi} (OPCS);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="15"/>
+        <v>evdate</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesProceduresEpi}_evdate ON {dataDb}.{hesProceduresEpi} (evdate);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="15"/>
+        <v>p_order</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesProceduresEpi}_p_order ON {dataDb}.{hesProceduresEpi} (p_order);</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>286</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F144" t="str">
+        <f>"  # "&amp;E144</f>
+        <v xml:space="preserve">  # hesAcp</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="15"/>
+        <v>patid</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" ref="F145:F165" si="16">"  - CREATE INDEX x_{"&amp;E145&amp;"}_"&amp;C145&amp;" ON {dataDb}.{"&amp;E145&amp;"} ("&amp;C145&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_patid ON {dataDb}.{hesAcp} (patid);</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="15"/>
+        <v>spno</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_spno ON {dataDb}.{hesAcp} (spno);</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="15"/>
+        <v>epikey</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_epikey ON {dataDb}.{hesAcp} (epikey);</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="15"/>
+        <v>epistart</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_epistart ON {dataDb}.{hesAcp} (epistart);</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="15"/>
+        <v>epiend</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_epiend ON {dataDb}.{hesAcp} (epiend);</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="15"/>
+        <v>eorder</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_eorder ON {dataDb}.{hesAcp} (eorder);</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="15"/>
+        <v>epidur</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F151" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_epidur ON {dataDb}.{hesAcp} (epidur);</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="15"/>
+        <v>numacp</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_numacp ON {dataDb}.{hesAcp} (numacp);</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="15"/>
+        <v>acpn</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_acpn ON {dataDb}.{hesAcp} (acpn);</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="15"/>
+        <v>acpstar</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_acpstar ON {dataDb}.{hesAcp} (acpstar);</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="15"/>
+        <v>acpend</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_acpend ON {dataDb}.{hesAcp} (acpend);</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="15"/>
+        <v>acpdur</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_acpdur ON {dataDb}.{hesAcp} (acpdur);</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="15"/>
+        <v>intdays</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_intdays ON {dataDb}.{hesAcp} (intdays);</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="15"/>
+        <v>depdays</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_depdays ON {dataDb}.{hesAcp} (depdays);</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="15"/>
+        <v>acploc</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_acploc ON {dataDb}.{hesAcp} (acploc);</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="15"/>
+        <v>acpsour</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_acpsour ON {dataDb}.{hesAcp} (acpsour);</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="15"/>
+        <v>acpdisp</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_acpdisp ON {dataDb}.{hesAcp} (acpdisp);</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="15"/>
+        <v>acpout</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F162" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_acpout ON {dataDb}.{hesAcp} (acpout);</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="15"/>
+        <v>acpplan</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F163" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_acpplan ON {dataDb}.{hesAcp} (acpplan);</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="15"/>
+        <v>acpspef</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F164" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_acpspef ON {dataDb}.{hesAcp} (acpspef);</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="15"/>
+        <v>orgsup</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F165" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesAcp}_orgsup ON {dataDb}.{hesAcp} (orgsup);</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>320</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F166" t="str">
+        <f>"  # "&amp;E166</f>
+        <v xml:space="preserve">  # hesCcare</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="15"/>
+        <v>patid</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F167" t="str">
+        <f t="shared" ref="F167:F202" si="17">"  - CREATE INDEX x_{"&amp;E167&amp;"}_"&amp;C167&amp;" ON {dataDb}.{"&amp;E167&amp;"} ("&amp;C167&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_patid ON {dataDb}.{hesCcare} (patid);</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="15"/>
+        <v>spno</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_spno ON {dataDb}.{hesCcare} (spno);</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="15"/>
+        <v>epikey</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F169" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_epikey ON {dataDb}.{hesCcare} (epikey);</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="15"/>
+        <v>admidate</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F170" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_admidate ON {dataDb}.{hesCcare} (admidate);</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="15"/>
+        <v>discharged</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F171" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_discharged ON {dataDb}.{hesCcare} (discharged);</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="15"/>
+        <v>epistart</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F172" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_epistart ON {dataDb}.{hesCcare} (epistart);</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="C173" t="str">
+        <f t="shared" si="15"/>
+        <v>epiend</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F173" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_epiend ON {dataDb}.{hesCcare} (epiend);</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" si="15"/>
+        <v>eorder</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F174" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_eorder ON {dataDb}.{hesCcare} (eorder);</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="15"/>
+        <v>ccstartdate</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F175" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccstartdate ON {dataDb}.{hesCcare} (ccstartdate);</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="15"/>
+        <v>ccstarttime</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F176" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccstarttime ON {dataDb}.{hesCcare} (ccstarttime);</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="15"/>
+        <v>ccdisrdydate</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F177" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccdisrdydate ON {dataDb}.{hesCcare} (ccdisrdydate);</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="15"/>
+        <v>ccdisrdytime</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F178" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccdisrdytime ON {dataDb}.{hesCcare} (ccdisrdytime);</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="15"/>
+        <v>ccdisdate</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F179" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccdisdate ON {dataDb}.{hesCcare} (ccdisdate);</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="15"/>
+        <v>ccdistime</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F180" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccdistime ON {dataDb}.{hesCcare} (ccdistime);</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="15"/>
+        <v>ccadmitype</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F181" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccadmitype ON {dataDb}.{hesCcare} (ccadmitype);</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="15"/>
+        <v>ccadmisorc</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F182" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccadmisorc ON {dataDb}.{hesCcare} (ccadmisorc);</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" si="15"/>
+        <v>ccsorcloc</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F183" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccsorcloc ON {dataDb}.{hesCcare} (ccsorcloc);</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B184">
+        <f t="shared" ref="B184:B239" si="18">FIND("(",A184)</f>
+        <v>59</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="15"/>
+        <v>ccdisstat</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F184" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccdisstat ON {dataDb}.{hesCcare} (ccdisstat);</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="18"/>
+        <v>59</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="15"/>
+        <v>ccdisdest</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F185" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccdisdest ON {dataDb}.{hesCcare} (ccdisdest);</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="18"/>
+        <v>58</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="15"/>
+        <v>ccdisloc</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F186" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccdisloc ON {dataDb}.{hesCcare} (ccdisloc);</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="15"/>
+        <v>cclev2days</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F187" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_cclev2days ON {dataDb}.{hesCcare} (cclev2days);</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" si="15"/>
+        <v>cclev3days</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F188" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_cclev3days ON {dataDb}.{hesCcare} (cclev3days);</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="18"/>
+        <v>62</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="15"/>
+        <v>bcardsupdays</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F189" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_bcardsupdays ON {dataDb}.{hesCcare} (bcardsupdays);</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="18"/>
+        <v>62</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="15"/>
+        <v>acardsupdays</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F190" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_acardsupdays ON {dataDb}.{hesCcare} (acardsupdays);</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="18"/>
+        <v>61</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="15"/>
+        <v>bressupdays</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F191" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_bressupdays ON {dataDb}.{hesCcare} (bressupdays);</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="18"/>
+        <v>61</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="15"/>
+        <v>aressupdays</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F192" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_aressupdays ON {dataDb}.{hesCcare} (aressupdays);</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="18"/>
+        <v>59</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" si="15"/>
+        <v>gisupdays</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F193" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_gisupdays ON {dataDb}.{hesCcare} (gisupdays);</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="18"/>
+        <v>62</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" si="15"/>
+        <v>liversupdays</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F194" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_liversupdays ON {dataDb}.{hesCcare} (liversupdays);</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="18"/>
+        <v>62</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" si="15"/>
+        <v>neurosupdays</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F195" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_neurosupdays ON {dataDb}.{hesCcare} (neurosupdays);</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="15"/>
+        <v>rensupdays</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F196" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_rensupdays ON {dataDb}.{hesCcare} (rensupdays);</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="18"/>
+        <v>61</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="15"/>
+        <v>dermsupdays</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F197" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_dermsupdays ON {dataDb}.{hesCcare} (dermsupdays);</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="18"/>
+        <v>59</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="15"/>
+        <v>orgsupmax</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F198" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_orgsupmax ON {dataDb}.{hesCcare} (orgsupmax);</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="18"/>
+        <v>59</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" ref="C199:C248" si="19">MID(A199,B199+1,LEN(A199)-2-B199)</f>
+        <v>ccunitfun</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F199" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccunitfun ON {dataDb}.{hesCcare} (ccunitfun);</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="18"/>
+        <v>63</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="19"/>
+        <v>unitbedconfig</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F200" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_unitbedconfig ON {dataDb}.{hesCcare} (unitbedconfig);</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="18"/>
+        <v>59</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="19"/>
+        <v>bestmatch</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F201" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_bestmatch ON {dataDb}.{hesCcare} (bestmatch);</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="18"/>
+        <v>58</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" si="19"/>
+        <v>ccapcrel</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F202" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{hesCcare}_ccapcrel ON {dataDb}.{hesCcare} (ccapcrel);</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F203" t="str">
+        <f>"  # "&amp;E203</f>
+        <v xml:space="preserve">  # patientImd2015</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="18"/>
+        <v>68</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" si="19"/>
+        <v>pracid</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F204" t="str">
+        <f t="shared" ref="F204:F205" si="20">"  - CREATE INDEX x_{"&amp;E204&amp;"}_"&amp;C204&amp;" ON {dataDb}.{"&amp;E204&amp;"} ("&amp;C204&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{patientImd2015}_pracid ON {dataDb}.{patientImd2015} (pracid);</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="18"/>
+        <v>72</v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" si="19"/>
+        <v>imd2015_10</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F205" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{patientImd2015}_imd2015_10 ON {dataDb}.{patientImd2015} (imd2015_10);</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>387</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F206" t="str">
+        <f>"  # "&amp;E206</f>
+        <v xml:space="preserve">  # practiceImd</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="18"/>
+        <v>63</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="19"/>
+        <v>country</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F207" t="str">
+        <f t="shared" ref="F207:F211" si="21">"  - CREATE INDEX x_{"&amp;E207&amp;"}_"&amp;C207&amp;" ON {dataDb}.{"&amp;E207&amp;"} ("&amp;C207&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{practiceImd}_country ON {dataDb}.{practiceImd} (country);</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="18"/>
+        <v>68</v>
+      </c>
+      <c r="C208" t="str">
+        <f t="shared" si="19"/>
+        <v>e2015_imd_10</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F208" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{practiceImd}_e2015_imd_10 ON {dataDb}.{practiceImd} (e2015_imd_10);</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="18"/>
+        <v>69</v>
+      </c>
+      <c r="C209" t="str">
+        <f t="shared" si="19"/>
+        <v>ni2017_imd_10</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F209" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{practiceImd}_ni2017_imd_10 ON {dataDb}.{practiceImd} (ni2017_imd_10);</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="18"/>
+        <v>68</v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" si="19"/>
+        <v>s2016_imd_10</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F210" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{practiceImd}_s2016_imd_10 ON {dataDb}.{practiceImd} (s2016_imd_10);</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="18"/>
+        <v>68</v>
+      </c>
+      <c r="C211" t="str">
+        <f t="shared" si="19"/>
+        <v>w2014_imd_10</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F211" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{practiceImd}_w2014_imd_10 ON {dataDb}.{practiceImd} (w2014_imd_10);</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F212" t="str">
+        <f>"  # "&amp;E212</f>
+        <v xml:space="preserve">  # onsDeath</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="C213" t="str">
+        <f t="shared" si="19"/>
+        <v>pracid</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F213" t="str">
+        <f t="shared" ref="F213:F237" si="22">"  - CREATE INDEX x_{"&amp;E213&amp;"}_"&amp;C213&amp;" ON {dataDb}.{"&amp;E213&amp;"} ("&amp;C213&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_pracid ON {dataDb}.{onsDeath} (pracid);</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="18"/>
+        <v>62</v>
+      </c>
+      <c r="C214" t="str">
+        <f t="shared" si="19"/>
+        <v>gen_death_id</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F214" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_gen_death_id ON {dataDb}.{onsDeath} (gen_death_id);</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="18"/>
+        <v>63</v>
+      </c>
+      <c r="C215" t="str">
+        <f t="shared" si="19"/>
+        <v>n_patid_death</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F215" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_n_patid_death ON {dataDb}.{onsDeath} (n_patid_death);</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="C216" t="str">
+        <f t="shared" si="19"/>
+        <v>match_rank</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F216" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_match_rank ON {dataDb}.{onsDeath} (match_rank);</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="18"/>
+        <v>53</v>
+      </c>
+      <c r="C217" t="str">
+        <f t="shared" si="19"/>
+        <v>dor</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F217" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_dor ON {dataDb}.{onsDeath} (dor);</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="18"/>
+        <v>53</v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" si="19"/>
+        <v>dod</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F218" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_dod ON {dataDb}.{onsDeath} (dod);</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="18"/>
+        <v>61</v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" si="19"/>
+        <v>dod_partial</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F219" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_dod_partial ON {dataDb}.{onsDeath} (dod_partial);</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="18"/>
+        <v>63</v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" si="19"/>
+        <v>nhs_indicator</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F220" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_nhs_indicator ON {dataDb}.{onsDeath} (nhs_indicator);</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="18"/>
+        <v>62</v>
+      </c>
+      <c r="C221" t="str">
+        <f t="shared" si="19"/>
+        <v>pod_category</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F221" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_pod_category ON {dataDb}.{onsDeath} (pod_category);</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="18"/>
+        <v>55</v>
+      </c>
+      <c r="C222" t="str">
+        <f t="shared" si="19"/>
+        <v>cause</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F222" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause ON {dataDb}.{onsDeath} (cause);</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" si="19"/>
+        <v>cause1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F223" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause1 ON {dataDb}.{onsDeath} (cause1);</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" si="19"/>
+        <v>cause2</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F224" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause2 ON {dataDb}.{onsDeath} (cause2);</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" si="19"/>
+        <v>cause3</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F225" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause3 ON {dataDb}.{onsDeath} (cause3);</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="C226" t="str">
+        <f t="shared" si="19"/>
+        <v>cause4</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F226" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause4 ON {dataDb}.{onsDeath} (cause4);</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" si="19"/>
+        <v>cause5</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F227" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause5 ON {dataDb}.{onsDeath} (cause5);</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" si="19"/>
+        <v>cause6</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F228" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause6 ON {dataDb}.{onsDeath} (cause6);</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" si="19"/>
+        <v>cause7</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F229" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause7 ON {dataDb}.{onsDeath} (cause7);</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="19"/>
+        <v>cause8</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F230" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause8 ON {dataDb}.{onsDeath} (cause8);</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="19"/>
+        <v>cause9</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F231" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause9 ON {dataDb}.{onsDeath} (cause9);</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="C232" t="str">
+        <f t="shared" si="19"/>
+        <v>cause10</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F232" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause10 ON {dataDb}.{onsDeath} (cause10);</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="19"/>
+        <v>cause11</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F233" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause11 ON {dataDb}.{onsDeath} (cause11);</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="19"/>
+        <v>cause12</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F234" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause12 ON {dataDb}.{onsDeath} (cause12);</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="19"/>
+        <v>cause13</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F235" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause13 ON {dataDb}.{onsDeath} (cause13);</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="19"/>
+        <v>cause14</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F236" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause14 ON {dataDb}.{onsDeath} (cause14);</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="19"/>
+        <v>cause15</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F237" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{onsDeath}_cause15 ON {dataDb}.{onsDeath} (cause15);</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F238" t="str">
+        <f>"  # "&amp;E238</f>
+        <v xml:space="preserve">  # sgss</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="19"/>
+        <v>patid</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F239" t="str">
+        <f t="shared" ref="F239:F248" si="23">"  - CREATE INDEX x_{"&amp;E239&amp;"}_"&amp;C239&amp;" ON {dataDb}.{"&amp;E239&amp;"} ("&amp;C239&amp;");"</f>
+        <v xml:space="preserve">  - CREATE INDEX x_{sgss}_patid ON {dataDb}.{sgss} (patid);</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B240">
+        <f t="shared" ref="B240:B248" si="24">FIND("(",A240)</f>
+        <v>46</v>
+      </c>
+      <c r="C240" t="str">
+        <f t="shared" si="19"/>
+        <v>pracid</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F240" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{sgss}_pracid ON {dataDb}.{sgss} (pracid);</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="24"/>
+        <v>52</v>
+      </c>
+      <c r="C241" t="str">
+        <f t="shared" si="19"/>
+        <v>n_patid_spec</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F241" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{sgss}_n_patid_spec ON {dataDb}.{sgss} (n_patid_spec);</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="24"/>
+        <v>58</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" si="19"/>
+        <v>pseudo_specimen_id</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F242" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{sgss}_pseudo_specimen_id ON {dataDb}.{sgss} (pseudo_specimen_id);</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="24"/>
+        <v>61</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" si="19"/>
+        <v>organism_species_name</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F243" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{sgss}_organism_species_name ON {dataDb}.{sgss} (organism_species_name);</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="24"/>
+        <v>55</v>
+      </c>
+      <c r="C244" t="str">
+        <f t="shared" si="19"/>
+        <v>lab_report_date</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F244" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{sgss}_lab_report_date ON {dataDb}.{sgss} (lab_report_date);</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="24"/>
+        <v>52</v>
+      </c>
+      <c r="C245" t="str">
+        <f t="shared" si="19"/>
+        <v>age_in_years</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F245" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{sgss}_age_in_years ON {dataDb}.{sgss} (age_in_years);</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="24"/>
+        <v>56</v>
+      </c>
+      <c r="C246" t="str">
+        <f t="shared" si="19"/>
+        <v>reporting_lab_id</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F246" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{sgss}_reporting_lab_id ON {dataDb}.{sgss} (reporting_lab_id);</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="24"/>
+        <v>53</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" si="19"/>
+        <v>specimen_date</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F247" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{sgss}_specimen_date ON {dataDb}.{sgss} (specimen_date);</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="24"/>
+        <v>49</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" si="19"/>
+        <v>care_home</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F248" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  - CREATE INDEX x_{sgss}_care_home ON {dataDb}.{sgss} (care_home);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K494"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I3"/>
     </sheetView>
   </sheetViews>
@@ -16276,7 +21864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J496"/>
   <sheetViews>
@@ -21796,7 +27384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A496"/>
   <sheetViews>
@@ -24292,21 +29880,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7443FFE2BB5364AA07A7BBEE2C00788" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c33d31759029131d8e59390615110ce0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="05882578-497b-4cf7-81dc-3721c52819b3" xmlns:ns4="4b8f695c-c865-44f8-899f-0021c83a7e4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c8897dff4450f2d9e66545f941b4913" ns3:_="" ns4:_="">
     <xsd:import namespace="05882578-497b-4cf7-81dc-3721c52819b3"/>
@@ -24523,32 +30096,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7B804F-A793-4A8C-8343-5A17D028306C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09F3D20F-4409-41DC-8022-B973B971AB07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="4b8f695c-c865-44f8-899f-0021c83a7e4b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="05882578-497b-4cf7-81dc-3721c52819b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05B5904F-B9CE-429D-9E44-F705A045E9DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24565,4 +30128,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09F3D20F-4409-41DC-8022-B973B971AB07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4b8f695c-c865-44f8-899f-0021c83a7e4b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="05882578-497b-4cf7-81dc-3721c52819b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7B804F-A793-4A8C-8343-5A17D028306C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data-raw/extra info/linkage data and lookup table yaml code.xlsx
+++ b/data-raw/extra info/linkage data and lookup table yaml code.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ky279\OneDrive - University of Exeter\CPRD Aurum\Exeter_CPRD_Aurum\data-raw\extra info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ky279\OneDrive - University of Exeter\CPRD\Exeter_Diabetes_aurum_package\data-raw\extra info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8592" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8592"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="1681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="1682">
   <si>
     <t># CHESS data</t>
   </si>
@@ -5072,6 +5072,9 @@
   </si>
   <si>
     <t>sgss</t>
+  </si>
+  <si>
+    <t>pconsult = IF(@pconsult='&amp;' OR @pconsult='99',NULL,@pconsult),</t>
   </si>
 </sst>
 </file>
@@ -5389,10 +5392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B665"/>
+  <dimension ref="A1:B666"/>
   <sheetViews>
-    <sheetView topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="B303" sqref="B303"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="I299" sqref="I299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7842,7 +7845,7 @@
         <v>96</v>
       </c>
       <c r="B281" t="str">
-        <f t="shared" ref="B281:B302" si="9">"      "&amp;A281</f>
+        <f t="shared" ref="B281:B303" si="9">"      "&amp;A281</f>
         <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
       </c>
     </row>
@@ -7911,3184 +7914,3193 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>243</v>
+        <v>1681</v>
       </c>
       <c r="B289" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      epidur = NULLIF(@epidur,''),</v>
+        <v xml:space="preserve">      pconsult = IF(@pconsult='&amp;' OR @pconsult='99',NULL,@pconsult),</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B290" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      firstreg = IF(@firstreg='N',1,IF(@firstreg='',NULL,@firstreg)),</v>
+        <v xml:space="preserve">      epidur = NULLIF(@epidur,''),</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B291" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      ethnos = IF(@ethnos = 'White', 1,</v>
+        <v xml:space="preserve">      firstreg = IF(@firstreg='N',1,IF(@firstreg='',NULL,@firstreg)),</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B292" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      IF(@ethnos = 'Bl_Carib', 2,</v>
+        <v xml:space="preserve">      ethnos = IF(@ethnos = 'White', 1,</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B293" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      IF(@ethnos = 'Bl_Afric', 3,</v>
+        <v xml:space="preserve">      IF(@ethnos = 'Bl_Carib', 2,</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B294" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      IF(@ethnos = 'Bl_Other', 4,</v>
+        <v xml:space="preserve">      IF(@ethnos = 'Bl_Afric', 3,</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B295" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      IF(@ethnos = 'Indian', 5,</v>
+        <v xml:space="preserve">      IF(@ethnos = 'Bl_Other', 4,</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B296" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      IF(@ethnos = 'Pakistani', 6,</v>
+        <v xml:space="preserve">      IF(@ethnos = 'Indian', 5,</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B297" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      IF(@ethnos = 'Bangladesi', 7,</v>
+        <v xml:space="preserve">      IF(@ethnos = 'Pakistani', 6,</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B298" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      IF(@ethnos = 'Oth_Asian', 8,</v>
+        <v xml:space="preserve">      IF(@ethnos = 'Bangladesi', 7,</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B299" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      IF(@ethnos = 'Chinese', 9,</v>
+        <v xml:space="preserve">      IF(@ethnos = 'Oth_Asian', 8,</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B300" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      IF(@ethnos = 'Mixed', 10,</v>
+        <v xml:space="preserve">      IF(@ethnos = 'Chinese', 9,</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B301" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      IF(@ethnos = 'Other', 11,</v>
+        <v xml:space="preserve">      IF(@ethnos = 'Mixed', 10,</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>482</v>
+        <v>255</v>
       </c>
       <c r="B302" t="str">
         <f t="shared" si="9"/>
+        <v xml:space="preserve">      IF(@ethnos = 'Other', 11,</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>482</v>
+      </c>
+      <c r="B303" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">      IF(@ethnos = 'Unknown', NULL, NULL))))))))))))</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B303" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B306" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>256</v>
-      </c>
-      <c r="B306" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B307" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>472</v>
-      </c>
-      <c r="B308" t="str">
-        <f t="shared" ref="B308:B317" si="10">"      "&amp;A308</f>
-        <v xml:space="preserve">      (patid BIGINT UNSIGNED NOT NULL,</v>
+        <v>257</v>
+      </c>
+      <c r="B308" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
+        <v>472</v>
+      </c>
+      <c r="B309" t="str">
+        <f t="shared" ref="B309:B318" si="10">"      "&amp;A309</f>
+        <v xml:space="preserve">      (patid BIGINT UNSIGNED NOT NULL,</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>204</v>
       </c>
-      <c r="B309" t="str">
+      <c r="B310" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">      spno BIGINT UNSIGNED,</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>480</v>
       </c>
-      <c r="B310" t="str">
+      <c r="B311" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">      epikey BIGINT UNSIGNED NOT NULL,</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>225</v>
       </c>
-      <c r="B311" t="str">
+      <c r="B312" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">      epistart DATE,</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>226</v>
       </c>
-      <c r="B312" t="str">
+      <c r="B313" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">      epiend DATE,</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>258</v>
       </c>
-      <c r="B313" t="str">
+      <c r="B314" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">      ICD CHAR(5),</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>259</v>
       </c>
-      <c r="B314" t="str">
+      <c r="B315" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">      ICDx CHAR(2),</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>489</v>
       </c>
-      <c r="B315" t="str">
+      <c r="B316" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">      d_order TINYINT NOT NULL,</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>260</v>
       </c>
-      <c r="B316" t="str">
+      <c r="B317" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">      PRIMARY KEY (patid, epikey, d_order))</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>467</v>
       </c>
-      <c r="B317" t="str">
+      <c r="B318" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">      CHARSET=latin1 COLLATE=latin1_general_ci</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B318" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B319" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>261</v>
-      </c>
-      <c r="B319" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B320" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>96</v>
-      </c>
-      <c r="B321" t="str">
-        <f t="shared" ref="B321:B327" si="11">"      "&amp;A321</f>
-        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+        <v>262</v>
+      </c>
+      <c r="B321" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
+        <v>96</v>
+      </c>
+      <c r="B322" t="str">
+        <f t="shared" ref="B322:B328" si="11">"      "&amp;A322</f>
+        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>97</v>
       </c>
-      <c r="B322" t="str">
+      <c r="B323" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">      LINES TERMINATED BY '\r\n'</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>98</v>
       </c>
-      <c r="B323" t="str">
+      <c r="B324" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">      IGNORE 1 LINES</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>263</v>
       </c>
-      <c r="B324" t="str">
+      <c r="B325" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">      (patid, spno, epikey, @epistart, @epiend, ICD, @ICDx, d_order)</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>264</v>
       </c>
-      <c r="B325" t="str">
+      <c r="B326" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">      SET epistart = STR_TO_DATE(NULLIF(@epistart,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>242</v>
       </c>
-      <c r="B326" t="str">
+      <c r="B327" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">      epiend = STR_TO_DATE(NULLIF(@epiend,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>491</v>
       </c>
-      <c r="B327" t="str">
+      <c r="B328" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">      ICDx = NULLIF(@ICDx,'')</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B328" t="s">
-        <v>492</v>
-      </c>
-    </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B331" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>265</v>
-      </c>
-      <c r="B331" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B332" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>2</v>
-      </c>
-      <c r="B333" t="str">
-        <f t="shared" ref="B333:B340" si="12">"      "&amp;A333</f>
-        <v xml:space="preserve">      (patid BIGINT UNSIGNED,</v>
+        <v>266</v>
+      </c>
+      <c r="B333" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
+        <v>2</v>
+      </c>
+      <c r="B334" t="str">
+        <f t="shared" ref="B334:B341" si="12">"      "&amp;A334</f>
+        <v xml:space="preserve">      (patid BIGINT UNSIGNED,</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>204</v>
       </c>
-      <c r="B334" t="str">
+      <c r="B335" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">      spno BIGINT UNSIGNED,</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>205</v>
       </c>
-      <c r="B335" t="str">
+      <c r="B336" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">      admidate DATE,</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
         <v>206</v>
       </c>
-      <c r="B336" t="str">
+      <c r="B337" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">      discharged DATE,</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
         <v>258</v>
       </c>
-      <c r="B337" t="str">
+      <c r="B338" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">      ICD CHAR(5),</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
         <v>259</v>
       </c>
-      <c r="B338" t="str">
+      <c r="B339" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">      ICDx CHAR(2),</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
         <v>267</v>
       </c>
-      <c r="B339" t="str">
+      <c r="B340" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">      primary_key INT PRIMARY KEY AUTO_INCREMENT)</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
         <v>467</v>
       </c>
-      <c r="B340" t="str">
+      <c r="B341" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">      CHARSET=latin1 COLLATE=latin1_general_ci</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B341" t="s">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B342" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>268</v>
-      </c>
-      <c r="B342" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B343" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>96</v>
-      </c>
-      <c r="B344" t="str">
-        <f t="shared" ref="B344:B350" si="13">"      "&amp;A344</f>
-        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+        <v>269</v>
+      </c>
+      <c r="B344" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
+        <v>96</v>
+      </c>
+      <c r="B345" t="str">
+        <f t="shared" ref="B345:B351" si="13">"      "&amp;A345</f>
+        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>97</v>
       </c>
-      <c r="B345" t="str">
+      <c r="B346" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">      LINES TERMINATED BY '\r\n'</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
         <v>98</v>
       </c>
-      <c r="B346" t="str">
+      <c r="B347" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">      IGNORE 1 LINES</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
         <v>270</v>
       </c>
-      <c r="B347" t="str">
+      <c r="B348" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">      (patid, spno, @admidate, @discharged, ICD, @ICDx)</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
         <v>218</v>
       </c>
-      <c r="B348" t="str">
+      <c r="B349" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">      SET admidate = STR_TO_DATE(NULLIF(@admidate,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>219</v>
       </c>
-      <c r="B349" t="str">
+      <c r="B350" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">      discharged = STR_TO_DATE(NULLIF(@discharged,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
         <v>491</v>
       </c>
-      <c r="B350" t="str">
+      <c r="B351" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">      ICDx = NULLIF(@ICDx,'')</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B351" t="s">
-        <v>496</v>
-      </c>
-    </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B354" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>271</v>
-      </c>
-      <c r="B354" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B355" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>2</v>
-      </c>
-      <c r="B356" t="str">
-        <f t="shared" ref="B356:B363" si="14">"      "&amp;A356</f>
-        <v xml:space="preserve">      (patid BIGINT UNSIGNED,</v>
+        <v>272</v>
+      </c>
+      <c r="B356" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
+        <v>2</v>
+      </c>
+      <c r="B357" t="str">
+        <f t="shared" ref="B357:B364" si="14">"      "&amp;A357</f>
+        <v xml:space="preserve">      (patid BIGINT UNSIGNED,</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
         <v>204</v>
       </c>
-      <c r="B357" t="str">
+      <c r="B358" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">      spno BIGINT UNSIGNED,</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>205</v>
       </c>
-      <c r="B358" t="str">
+      <c r="B359" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">      admidate DATE,</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>206</v>
       </c>
-      <c r="B359" t="str">
+      <c r="B360" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">      discharged DATE,</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
         <v>273</v>
       </c>
-      <c r="B360" t="str">
+      <c r="B361" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">      ICD_PRIMARY CHAR(5),</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>259</v>
       </c>
-      <c r="B361" t="str">
+      <c r="B362" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">      ICDx CHAR(2),</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>267</v>
       </c>
-      <c r="B362" t="str">
+      <c r="B363" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">      primary_key INT PRIMARY KEY AUTO_INCREMENT)</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
         <v>467</v>
       </c>
-      <c r="B363" t="str">
+      <c r="B364" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">      CHARSET=latin1 COLLATE=latin1_general_ci</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B364" t="s">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B365" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
-        <v>274</v>
-      </c>
-      <c r="B365" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B366" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>96</v>
-      </c>
-      <c r="B367" t="str">
-        <f t="shared" ref="B367:B373" si="15">"      "&amp;A367</f>
-        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+        <v>275</v>
+      </c>
+      <c r="B367" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
+        <v>96</v>
+      </c>
+      <c r="B368" t="str">
+        <f t="shared" ref="B368:B374" si="15">"      "&amp;A368</f>
+        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>97</v>
       </c>
-      <c r="B368" t="str">
+      <c r="B369" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">      LINES TERMINATED BY '\r\n'</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
         <v>98</v>
       </c>
-      <c r="B369" t="str">
+      <c r="B370" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">      IGNORE 1 LINES</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
         <v>276</v>
       </c>
-      <c r="B370" t="str">
+      <c r="B371" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">      (patid, spno, @admidate, @discharged, ICD_PRIMARY, @ICDx)</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
         <v>218</v>
       </c>
-      <c r="B371" t="str">
+      <c r="B372" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">      SET admidate = STR_TO_DATE(NULLIF(@admidate,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
         <v>219</v>
       </c>
-      <c r="B372" t="str">
+      <c r="B373" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">      discharged = STR_TO_DATE(NULLIF(@discharged,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
         <v>491</v>
       </c>
-      <c r="B373" t="str">
+      <c r="B374" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">      ICDx = NULLIF(@ICDx,'')</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B374" t="s">
-        <v>503</v>
-      </c>
-    </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B377" t="s">
         <v>504</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
-        <v>277</v>
-      </c>
-      <c r="B377" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B378" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>472</v>
-      </c>
-      <c r="B379" t="str">
-        <f t="shared" ref="B379:B390" si="16">"      "&amp;A379</f>
-        <v xml:space="preserve">      (patid BIGINT UNSIGNED NOT NULL,</v>
+        <v>278</v>
+      </c>
+      <c r="B379" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
+        <v>472</v>
+      </c>
+      <c r="B380" t="str">
+        <f t="shared" ref="B380:B391" si="16">"      "&amp;A380</f>
+        <v xml:space="preserve">      (patid BIGINT UNSIGNED NOT NULL,</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
         <v>204</v>
       </c>
-      <c r="B380" t="str">
+      <c r="B381" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">      spno BIGINT UNSIGNED,</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
         <v>480</v>
       </c>
-      <c r="B381" t="str">
+      <c r="B382" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">      epikey BIGINT UNSIGNED NOT NULL,</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
         <v>205</v>
       </c>
-      <c r="B382" t="str">
+      <c r="B383" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">      admidate DATE,</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
         <v>225</v>
       </c>
-      <c r="B383" t="str">
+      <c r="B384" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">      epistart DATE,</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
         <v>226</v>
       </c>
-      <c r="B384" t="str">
+      <c r="B385" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">      epiend DATE,</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
         <v>206</v>
       </c>
-      <c r="B385" t="str">
+      <c r="B386" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">      discharged DATE,</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
         <v>279</v>
       </c>
-      <c r="B386" t="str">
+      <c r="B387" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">      OPCS CHAR(4),</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
         <v>280</v>
       </c>
-      <c r="B387" t="str">
+      <c r="B388" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">      evdate DATE,</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
         <v>506</v>
       </c>
-      <c r="B388" t="str">
+      <c r="B389" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">      p_order TINYINT NOT NULL,</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
         <v>281</v>
       </c>
-      <c r="B389" t="str">
+      <c r="B390" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">      PRIMARY KEY (patid, epikey, p_order))</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
         <v>467</v>
       </c>
-      <c r="B390" t="str">
+      <c r="B391" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">      CHARSET=latin1 COLLATE=latin1_general_ci</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B391" t="s">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B392" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
-        <v>282</v>
-      </c>
-      <c r="B392" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B393" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>96</v>
-      </c>
-      <c r="B394" t="str">
-        <f t="shared" ref="B394:B403" si="17">"      "&amp;A394</f>
-        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+        <v>283</v>
+      </c>
+      <c r="B394" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
+        <v>96</v>
+      </c>
+      <c r="B395" t="str">
+        <f t="shared" ref="B395:B404" si="17">"      "&amp;A395</f>
+        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
         <v>97</v>
       </c>
-      <c r="B395" t="str">
+      <c r="B396" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">      LINES TERMINATED BY '\r\n'</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
         <v>98</v>
       </c>
-      <c r="B396" t="str">
+      <c r="B397" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">      IGNORE 1 LINES</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
         <v>284</v>
       </c>
-      <c r="B397" t="str">
+      <c r="B398" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">      (patid, spno, epikey, @admidate, @epistart, @epiend, @discharged, @OPCS, @evdate, p_order)</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
         <v>218</v>
       </c>
-      <c r="B398" t="str">
+      <c r="B399" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">      SET admidate = STR_TO_DATE(NULLIF(@admidate,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
         <v>241</v>
       </c>
-      <c r="B399" t="str">
+      <c r="B400" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">      epistart = STR_TO_DATE(NULLIF(@epistart,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
         <v>242</v>
       </c>
-      <c r="B400" t="str">
+      <c r="B401" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">      epiend = STR_TO_DATE(NULLIF(@epiend,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
         <v>219</v>
       </c>
-      <c r="B401" t="str">
+      <c r="B402" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">      discharged = STR_TO_DATE(NULLIF(@discharged,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
         <v>285</v>
       </c>
-      <c r="B402" t="str">
+      <c r="B403" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">      OPCS=IF(@OPCS='&amp;',NULL,@OPCS),</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
         <v>508</v>
       </c>
-      <c r="B403" t="str">
+      <c r="B404" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">      evdate = STR_TO_DATE(NULLIF(@evdate,''),'%d/%m/%Y')</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B404" t="s">
-        <v>509</v>
-      </c>
-    </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B407" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
-        <v>286</v>
-      </c>
-      <c r="B407" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B408" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>2</v>
-      </c>
-      <c r="B409" t="str">
-        <f t="shared" ref="B409:B431" si="18">"      "&amp;A409</f>
-        <v xml:space="preserve">      (patid BIGINT UNSIGNED,</v>
+        <v>287</v>
+      </c>
+      <c r="B409" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
+        <v>2</v>
+      </c>
+      <c r="B410" t="str">
+        <f t="shared" ref="B410:B432" si="18">"      "&amp;A410</f>
+        <v xml:space="preserve">      (patid BIGINT UNSIGNED,</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
         <v>204</v>
       </c>
-      <c r="B410" t="str">
+      <c r="B411" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      spno BIGINT UNSIGNED,</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
         <v>224</v>
       </c>
-      <c r="B411" t="str">
+      <c r="B412" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      epikey BIGINT UNSIGNED,</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
         <v>225</v>
       </c>
-      <c r="B412" t="str">
+      <c r="B413" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      epistart DATE,</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
         <v>226</v>
       </c>
-      <c r="B413" t="str">
+      <c r="B414" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      epiend DATE,</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
         <v>288</v>
       </c>
-      <c r="B414" t="str">
+      <c r="B415" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      eorder TINYINT,</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
         <v>289</v>
       </c>
-      <c r="B415" t="str">
+      <c r="B416" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      epidur SMALLINT,</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
         <v>290</v>
       </c>
-      <c r="B416" t="str">
+      <c r="B417" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      numacp TINYINT,</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
         <v>291</v>
       </c>
-      <c r="B417" t="str">
+      <c r="B418" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      acpn TINYINT,</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
         <v>292</v>
       </c>
-      <c r="B418" t="str">
+      <c r="B419" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      acpstar DATE,</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
         <v>293</v>
       </c>
-      <c r="B419" t="str">
+      <c r="B420" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      acpend DATE,</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
         <v>294</v>
       </c>
-      <c r="B420" t="str">
+      <c r="B421" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      acpdur SMALLINT,</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
         <v>295</v>
       </c>
-      <c r="B421" t="str">
+      <c r="B422" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      intdays SMALLINT,</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
         <v>296</v>
       </c>
-      <c r="B422" t="str">
+      <c r="B423" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      depdays SMALLINT,</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
         <v>297</v>
       </c>
-      <c r="B423" t="str">
+      <c r="B424" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      acploc TINYINT,</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
         <v>298</v>
       </c>
-      <c r="B424" t="str">
+      <c r="B425" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      acpsour TINYINT,</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
         <v>299</v>
       </c>
-      <c r="B425" t="str">
+      <c r="B426" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      acpdisp TINYINT,</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
         <v>300</v>
       </c>
-      <c r="B426" t="str">
+      <c r="B427" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      acpout TINYINT,</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
         <v>301</v>
       </c>
-      <c r="B427" t="str">
+      <c r="B428" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      acpplan TINYINT,</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
         <v>302</v>
       </c>
-      <c r="B428" t="str">
+      <c r="B429" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      acpspef CHAR(3),</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
         <v>303</v>
       </c>
-      <c r="B429" t="str">
+      <c r="B430" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      orgsup TINYINT,</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
         <v>267</v>
       </c>
-      <c r="B430" t="str">
+      <c r="B431" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      primary_key INT PRIMARY KEY AUTO_INCREMENT)</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
         <v>467</v>
       </c>
-      <c r="B431" t="str">
+      <c r="B432" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">      CHARSET=latin1 COLLATE=latin1_general_ci</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B432" t="s">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B433" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" t="s">
-        <v>304</v>
-      </c>
-      <c r="B433" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B434" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>96</v>
-      </c>
-      <c r="B435" t="str">
-        <f t="shared" ref="B435:B454" si="19">"      "&amp;A435</f>
-        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+        <v>305</v>
+      </c>
+      <c r="B435" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
+        <v>96</v>
+      </c>
+      <c r="B436" t="str">
+        <f t="shared" ref="B436:B455" si="19">"      "&amp;A436</f>
+        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
         <v>97</v>
       </c>
-      <c r="B436" t="str">
+      <c r="B437" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      LINES TERMINATED BY '\r\n'</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
         <v>98</v>
       </c>
-      <c r="B437" t="str">
+      <c r="B438" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      IGNORE 1 LINES</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" t="s">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
         <v>306</v>
       </c>
-      <c r="B438" t="str">
+      <c r="B439" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      (patid, spno, epikey, @epistart, @epiend, eorder, @epidur, numacp, @acpn, @acpstar, @acpend, @acpdur, @intdays, @depdays, @acploc, @acpsour, @acpdisp, @acpout, @acpplan, @acpspef, @orgsup)</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
         <v>307</v>
       </c>
-      <c r="B439" t="str">
+      <c r="B440" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      SET epistart = STR_TO_DATE(@epistart,'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
         <v>242</v>
       </c>
-      <c r="B440" t="str">
+      <c r="B441" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      epiend = STR_TO_DATE(NULLIF(@epiend,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
         <v>243</v>
       </c>
-      <c r="B441" t="str">
+      <c r="B442" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      epidur = NULLIF(@epidur,''),</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
         <v>308</v>
       </c>
-      <c r="B442" t="str">
+      <c r="B443" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      acpn = IF(@acpn='' OR acpn='99',NULL,@acpn),</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
         <v>309</v>
       </c>
-      <c r="B443" t="str">
+      <c r="B444" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      acpstar = STR_TO_DATE(NULLIF(@acpstar,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
         <v>310</v>
       </c>
-      <c r="B444" t="str">
+      <c r="B445" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      acpend = STR_TO_DATE(NULLIF(@acpend,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
         <v>311</v>
       </c>
-      <c r="B445" t="str">
+      <c r="B446" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      acpdur = NULLIF(@acpdur,''),</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
         <v>312</v>
       </c>
-      <c r="B446" t="str">
+      <c r="B447" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      intdays = NULLIF(@intdays,''),</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
         <v>313</v>
       </c>
-      <c r="B447" t="str">
+      <c r="B448" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      depdays = NULLIF(@depdays,''),</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
         <v>314</v>
       </c>
-      <c r="B448" t="str">
+      <c r="B449" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      acploc = NULLIF(@acploc,''),</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
         <v>315</v>
       </c>
-      <c r="B449" t="str">
+      <c r="B450" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      acpsour = IF(@acpsour='' OR @acpsour='0',NULL,@acpsour),</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
         <v>316</v>
       </c>
-      <c r="B450" t="str">
+      <c r="B451" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      acpdisp = IF(@acpdisp='' OR @acpdisp='0',NULL,@acpdisp),</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
         <v>317</v>
       </c>
-      <c r="B451" t="str">
+      <c r="B452" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      acpout = IF(@acpout='' OR @acpout='0',NULL,@acpout),</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
         <v>318</v>
       </c>
-      <c r="B452" t="str">
+      <c r="B453" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      acpplan = IF(@acpplan='Y',1,IF(@acpplan='N',2,IF(@acpplan='',NULL,@acpplan))),</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" t="s">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
         <v>319</v>
       </c>
-      <c r="B453" t="str">
+      <c r="B454" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      acpspef = IF(@acpspef='' OR @acpspef='0',NULL,@acpspef),</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
         <v>513</v>
       </c>
-      <c r="B454" t="str">
+      <c r="B455" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">      orgsup = NULLIF(@orgsup,'')</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B455" t="s">
-        <v>514</v>
-      </c>
-    </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B458" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
-        <v>320</v>
-      </c>
-      <c r="B458" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B459" t="s">
-        <v>516</v>
+        <v>464</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>2</v>
-      </c>
-      <c r="B460" t="str">
-        <f t="shared" ref="B460:B497" si="20">"      "&amp;A460</f>
-        <v xml:space="preserve">      (patid BIGINT UNSIGNED,</v>
+        <v>321</v>
+      </c>
+      <c r="B460" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
+        <v>2</v>
+      </c>
+      <c r="B461" t="str">
+        <f t="shared" ref="B461:B498" si="20">"      "&amp;A461</f>
+        <v xml:space="preserve">      (patid BIGINT UNSIGNED,</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
         <v>204</v>
       </c>
-      <c r="B461" t="str">
+      <c r="B462" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      spno BIGINT UNSIGNED,</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
         <v>224</v>
       </c>
-      <c r="B462" t="str">
+      <c r="B463" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      epikey BIGINT UNSIGNED,</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
         <v>205</v>
       </c>
-      <c r="B463" t="str">
+      <c r="B464" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      admidate DATE,</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" t="s">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
         <v>206</v>
       </c>
-      <c r="B464" t="str">
+      <c r="B465" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      discharged DATE,</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
         <v>225</v>
       </c>
-      <c r="B465" t="str">
+      <c r="B466" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      epistart DATE,</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
         <v>226</v>
       </c>
-      <c r="B466" t="str">
+      <c r="B467" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      epiend DATE,</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
         <v>288</v>
       </c>
-      <c r="B467" t="str">
+      <c r="B468" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      eorder TINYINT,</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
         <v>322</v>
       </c>
-      <c r="B468" t="str">
+      <c r="B469" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccstartdate DATE,</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
         <v>323</v>
       </c>
-      <c r="B469" t="str">
+      <c r="B470" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccstarttime TIME,</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
         <v>324</v>
       </c>
-      <c r="B470" t="str">
+      <c r="B471" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccdisrdydate DATE,</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
         <v>325</v>
       </c>
-      <c r="B471" t="str">
+      <c r="B472" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccdisrdytime TIME,</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
         <v>326</v>
       </c>
-      <c r="B472" t="str">
+      <c r="B473" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccdisdate DATE,</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
         <v>327</v>
       </c>
-      <c r="B473" t="str">
+      <c r="B474" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccdistime TIME,</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
         <v>328</v>
       </c>
-      <c r="B474" t="str">
+      <c r="B475" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccadmitype TINYINT,</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" t="s">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
         <v>329</v>
       </c>
-      <c r="B475" t="str">
+      <c r="B476" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccadmisorc TINYINT,</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
         <v>330</v>
       </c>
-      <c r="B476" t="str">
+      <c r="B477" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccsorcloc TINYINT,</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
         <v>331</v>
       </c>
-      <c r="B477" t="str">
+      <c r="B478" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccdisstat TINYINT,</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
         <v>332</v>
       </c>
-      <c r="B478" t="str">
+      <c r="B479" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccdisdest TINYINT,</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
         <v>333</v>
       </c>
-      <c r="B479" t="str">
+      <c r="B480" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccdisloc TINYINT,</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
         <v>334</v>
       </c>
-      <c r="B480" t="str">
+      <c r="B481" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      cclev2days SMALLINT,</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
         <v>335</v>
       </c>
-      <c r="B481" t="str">
+      <c r="B482" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      cclev3days SMALLINT,</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
         <v>336</v>
       </c>
-      <c r="B482" t="str">
+      <c r="B483" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      bcardsupdays SMALLINT,</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
         <v>337</v>
       </c>
-      <c r="B483" t="str">
+      <c r="B484" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      acardsupdays SMALLINT,</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
         <v>338</v>
       </c>
-      <c r="B484" t="str">
+      <c r="B485" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      bressupdays SMALLINT,</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
         <v>339</v>
       </c>
-      <c r="B485" t="str">
+      <c r="B486" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      aressupdays SMALLINT,</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
         <v>340</v>
       </c>
-      <c r="B486" t="str">
+      <c r="B487" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      gisupdays SMALLINT,</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
         <v>341</v>
       </c>
-      <c r="B487" t="str">
+      <c r="B488" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      liversupdays SMALLINT,</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
         <v>342</v>
       </c>
-      <c r="B488" t="str">
+      <c r="B489" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      neurosupdays SMALLINT,</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
         <v>343</v>
       </c>
-      <c r="B489" t="str">
+      <c r="B490" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      rensupdays SMALLINT,</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
         <v>344</v>
       </c>
-      <c r="B490" t="str">
+      <c r="B491" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      dermsupdays SMALLINT,</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
         <v>345</v>
       </c>
-      <c r="B491" t="str">
+      <c r="B492" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      orgsupmax TINYINT,</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
         <v>346</v>
       </c>
-      <c r="B492" t="str">
+      <c r="B493" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccunitfun TINYINT,</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
         <v>347</v>
       </c>
-      <c r="B493" t="str">
+      <c r="B494" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      unitbedconfig TINYINT,</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
         <v>348</v>
       </c>
-      <c r="B494" t="str">
+      <c r="B495" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      bestmatch BOOL DEFAULT NULL,</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
         <v>349</v>
       </c>
-      <c r="B495" t="str">
+      <c r="B496" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      ccapcrel TINYINT,</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" t="s">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
         <v>267</v>
       </c>
-      <c r="B496" t="str">
+      <c r="B497" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      primary_key INT PRIMARY KEY AUTO_INCREMENT)</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
         <v>467</v>
       </c>
-      <c r="B497" t="str">
+      <c r="B498" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">      CHARSET=latin1 COLLATE=latin1_general_ci</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B498" t="s">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B499" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
-        <v>350</v>
-      </c>
-      <c r="B499" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B500" t="s">
-        <v>517</v>
+        <v>469</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>96</v>
-      </c>
-      <c r="B501" t="str">
-        <f t="shared" ref="B501:B535" si="21">"      "&amp;A501</f>
-        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+        <v>351</v>
+      </c>
+      <c r="B501" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
+        <v>96</v>
+      </c>
+      <c r="B502" t="str">
+        <f t="shared" ref="B502:B536" si="21">"      "&amp;A502</f>
+        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
         <v>97</v>
       </c>
-      <c r="B502" t="str">
+      <c r="B503" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      LINES TERMINATED BY '\r\n'</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" t="s">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
         <v>98</v>
       </c>
-      <c r="B503" t="str">
+      <c r="B504" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      IGNORE 1 LINES</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" t="s">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
         <v>352</v>
       </c>
-      <c r="B504" t="str">
+      <c r="B505" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      (patid, spno, epikey, @admidate, @discharged, @epistart, @epiend, eorder, @ccstartdate, @ccstarttime, @ccdisrdydate, @ccdisrdytime, @ccdisdate, @ccdistime, @ccadmitype, @ccadmisorc, @ccsorcloc, @ccdisstat, @ccdisdest, @ccdisloc, @cclev2days, @cclev3days, @bcardsupdays, @acardsupdays, @bressupdays, @aressupdays, @gisupdays, @liversupdays, @neurosupdays, @rensupdays, @dermsupdays, @orgsupmax, @ccunitfun, @unitbedconfig, @bestmatch, ccapcrel)</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
         <v>353</v>
       </c>
-      <c r="B505" t="str">
+      <c r="B506" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      SET admidate = STR_TO_DATE(@admidate,'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
         <v>219</v>
       </c>
-      <c r="B506" t="str">
+      <c r="B507" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      discharged = STR_TO_DATE(NULLIF(@discharged,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" t="s">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
         <v>354</v>
       </c>
-      <c r="B507" t="str">
+      <c r="B508" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      epistart = STR_TO_DATE(@epistart,'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" t="s">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
         <v>355</v>
       </c>
-      <c r="B508" t="str">
+      <c r="B509" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      epiend = STR_TO_DATE(@epiend,'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" t="s">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
         <v>356</v>
       </c>
-      <c r="B509" t="str">
+      <c r="B510" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      ccstartdate = STR_TO_DATE(@ccstartdate,'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" t="s">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
         <v>357</v>
       </c>
-      <c r="B510" t="str">
+      <c r="B511" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      ccstarttime = NULLIF(@ccstarttime,''),</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" t="s">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
         <v>358</v>
       </c>
-      <c r="B511" t="str">
+      <c r="B512" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      ccdisrdydate = STR_TO_DATE(NULLIF(@ccdisrdydate,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" t="s">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
         <v>359</v>
       </c>
-      <c r="B512" t="str">
+      <c r="B513" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      ccdisrdytime = NULLIF(@ccdisrdytime,''),</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" t="s">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
         <v>360</v>
       </c>
-      <c r="B513" t="str">
+      <c r="B514" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      ccdisdate = STR_TO_DATE(@ccdisdate,'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" t="s">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
         <v>361</v>
       </c>
-      <c r="B514" t="str">
+      <c r="B515" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      ccdistime = NULLIF(@ccdistime,''),</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" t="s">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
         <v>362</v>
       </c>
-      <c r="B515" t="str">
+      <c r="B516" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      ccadmitype = NULLIF(@ccadmitype,''),</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" t="s">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
         <v>363</v>
       </c>
-      <c r="B516" t="str">
+      <c r="B517" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      ccadmisorc = NULLIF(@ccadmisorc,''),</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" t="s">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
         <v>364</v>
       </c>
-      <c r="B517" t="str">
+      <c r="B518" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      ccsorcloc = NULLIF(@ccsorcloc,''),</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" t="s">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
         <v>365</v>
       </c>
-      <c r="B518" t="str">
+      <c r="B519" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      ccdisstat = NULLIF(@ccdisstat,''),</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" t="s">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
         <v>366</v>
       </c>
-      <c r="B519" t="str">
+      <c r="B520" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      ccdisdest = NULLIF(@ccdisdest,''),</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A520" t="s">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
         <v>367</v>
       </c>
-      <c r="B520" t="str">
+      <c r="B521" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      ccdisloc = NULLIF(@ccdisloc,''),</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A521" t="s">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
         <v>368</v>
       </c>
-      <c r="B521" t="str">
+      <c r="B522" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      cclev2days = IF(@cclev2days='' OR @cclev2days='999',NULL,@cclev2days),</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A522" t="s">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
         <v>369</v>
       </c>
-      <c r="B522" t="str">
+      <c r="B523" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      cclev3days = IF(@cclev3days='' OR @cclev3days='999',NULL,@cclev3days),</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A523" t="s">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
         <v>370</v>
       </c>
-      <c r="B523" t="str">
+      <c r="B524" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      bcardsupdays = IF(@bcardsupdays='' OR @bcardsupdays='999',NULL,@bcardsupdays),</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A524" t="s">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
         <v>371</v>
       </c>
-      <c r="B524" t="str">
+      <c r="B525" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      acardsupdays = IF(@acardsupdays='' OR @acardsupdays='999',NULL,@acardsupdays),</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A525" t="s">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
         <v>372</v>
       </c>
-      <c r="B525" t="str">
+      <c r="B526" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      bressupdays = IF(@bressupdays='' OR @bressupdays='999',NULL,@bressupdays),</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A526" t="s">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
         <v>373</v>
       </c>
-      <c r="B526" t="str">
+      <c r="B527" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      aressupdays = IF(@aressupdays='' OR @aressupdays='999',NULL,@aressupdays),</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A527" t="s">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
         <v>374</v>
       </c>
-      <c r="B527" t="str">
+      <c r="B528" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      gisupdays = IF(@gisupdays='' OR @gisupdays='999',NULL,@gisupdays),</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A528" t="s">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
         <v>375</v>
       </c>
-      <c r="B528" t="str">
+      <c r="B529" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      liversupdays = IF(@liversupdays='' OR @liversupdays='999',NULL,@liversupdays),</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A529" t="s">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
         <v>376</v>
       </c>
-      <c r="B529" t="str">
+      <c r="B530" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      neurosupdays = IF(@neurosupdays='' OR @neurosupdays='999',NULL,@neurosupdays),</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A530" t="s">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
         <v>377</v>
       </c>
-      <c r="B530" t="str">
+      <c r="B531" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      rensupdays = IF(@rensupdays='' OR @rensupdays='999',NULL,@rensupdays),</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A531" t="s">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
         <v>378</v>
       </c>
-      <c r="B531" t="str">
+      <c r="B532" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      dermsupdays = IF(@dermsupdays='' OR @dermsupdays='999',NULL,@dermsupdays),</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A532" t="s">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
         <v>379</v>
       </c>
-      <c r="B532" t="str">
+      <c r="B533" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      orgsupmax = NULLIF(@orgsupmax,''),</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A533" t="s">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
         <v>380</v>
       </c>
-      <c r="B533" t="str">
+      <c r="B534" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      ccunitfun = NULLIF(@ccunitfun,''),</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A534" t="s">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
         <v>381</v>
       </c>
-      <c r="B534" t="str">
+      <c r="B535" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      unitbedconfig = NULLIF(@unitbedconfig,''),</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A535" t="s">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
         <v>518</v>
       </c>
-      <c r="B535" t="str">
+      <c r="B536" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">      bestmatch = NULLIF(@bestmatch,'')</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B536" t="s">
-        <v>519</v>
-      </c>
-    </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B537" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B538" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B539" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B540" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A540" t="s">
-        <v>382</v>
-      </c>
-      <c r="B540" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>472</v>
-      </c>
-      <c r="B541" t="str">
-        <f t="shared" ref="B541:B545" si="22">"      "&amp;A541</f>
-        <v xml:space="preserve">      (patid BIGINT UNSIGNED NOT NULL,</v>
+        <v>382</v>
+      </c>
+      <c r="B541" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
+        <v>472</v>
+      </c>
+      <c r="B542" t="str">
+        <f t="shared" ref="B542:B546" si="22">"      "&amp;A542</f>
+        <v xml:space="preserve">      (patid BIGINT UNSIGNED NOT NULL,</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
         <v>3</v>
       </c>
-      <c r="B542" t="str">
+      <c r="B543" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">      pracid MEDIUMINT,</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A543" t="s">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
         <v>383</v>
       </c>
-      <c r="B543" t="str">
+      <c r="B544" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">      imd2015_10 TINYINT,</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A544" t="s">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
         <v>187</v>
       </c>
-      <c r="B544" t="str">
+      <c r="B545" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">      PRIMARY KEY (patid))</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A545" t="s">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
         <v>467</v>
       </c>
-      <c r="B545" t="str">
+      <c r="B546" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">      CHARSET=latin1 COLLATE=latin1_general_ci</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B546" t="s">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B547" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A547" t="s">
-        <v>384</v>
-      </c>
-      <c r="B547" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B548" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>96</v>
-      </c>
-      <c r="B549" t="str">
-        <f t="shared" ref="B549:B553" si="23">"      "&amp;A549</f>
-        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+        <v>385</v>
+      </c>
+      <c r="B549" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
+        <v>96</v>
+      </c>
+      <c r="B550" t="str">
+        <f t="shared" ref="B550:B554" si="23">"      "&amp;A550</f>
+        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
         <v>97</v>
       </c>
-      <c r="B550" t="str">
+      <c r="B551" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">      LINES TERMINATED BY '\r\n'</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A551" t="s">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
         <v>98</v>
       </c>
-      <c r="B551" t="str">
+      <c r="B552" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">      IGNORE 1 LINES</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A552" t="s">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
         <v>386</v>
       </c>
-      <c r="B552" t="str">
+      <c r="B553" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">      (patid, pracid, @imd2015_10)</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A553" t="s">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
         <v>523</v>
       </c>
-      <c r="B553" t="str">
+      <c r="B554" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">      SET imd2015_10 = NULLIF(@imd2015_10,'')</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B554" t="s">
-        <v>524</v>
-      </c>
-    </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B555" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B556" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B557" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A557" t="s">
-        <v>387</v>
-      </c>
-      <c r="B557" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B558" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>527</v>
-      </c>
-      <c r="B559" t="str">
-        <f t="shared" ref="B559:B566" si="24">"      "&amp;A559</f>
-        <v xml:space="preserve">      (pracid MEDIUMINT NOT NULL,</v>
+        <v>388</v>
+      </c>
+      <c r="B559" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
+        <v>527</v>
+      </c>
+      <c r="B560" t="str">
+        <f t="shared" ref="B560:B567" si="24">"      "&amp;A560</f>
+        <v xml:space="preserve">      (pracid MEDIUMINT NOT NULL,</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
         <v>389</v>
       </c>
-      <c r="B560" t="str">
+      <c r="B561" t="str">
         <f t="shared" si="24"/>
         <v xml:space="preserve">      country VARCHAR(9),</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A561" t="s">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
         <v>390</v>
       </c>
-      <c r="B561" t="str">
+      <c r="B562" t="str">
         <f t="shared" si="24"/>
         <v xml:space="preserve">      e2015_imd_10 TINYINT,</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A562" t="s">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
         <v>391</v>
       </c>
-      <c r="B562" t="str">
+      <c r="B563" t="str">
         <f t="shared" si="24"/>
         <v xml:space="preserve">      ni2017_imd_10 TINYINT,</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A563" t="s">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
         <v>392</v>
       </c>
-      <c r="B563" t="str">
+      <c r="B564" t="str">
         <f t="shared" si="24"/>
         <v xml:space="preserve">      s2016_imd_10 TINYINT,</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A564" t="s">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
         <v>393</v>
       </c>
-      <c r="B564" t="str">
+      <c r="B565" t="str">
         <f t="shared" si="24"/>
         <v xml:space="preserve">      w2014_imd_10 TINYINT,</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A565" t="s">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
         <v>394</v>
       </c>
-      <c r="B565" t="str">
+      <c r="B566" t="str">
         <f t="shared" si="24"/>
         <v xml:space="preserve">      PRIMARY KEY (pracid))</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A566" t="s">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
         <v>467</v>
       </c>
-      <c r="B566" t="str">
+      <c r="B567" t="str">
         <f t="shared" si="24"/>
         <v xml:space="preserve">      CHARSET=latin1 COLLATE=latin1_general_ci</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B567" t="s">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B568" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A568" t="s">
-        <v>395</v>
-      </c>
-      <c r="B568" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B569" t="s">
-        <v>528</v>
+        <v>469</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>96</v>
-      </c>
-      <c r="B570" t="str">
-        <f t="shared" ref="B570:B577" si="25">"      "&amp;A570</f>
-        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+        <v>396</v>
+      </c>
+      <c r="B570" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
+        <v>96</v>
+      </c>
+      <c r="B571" t="str">
+        <f t="shared" ref="B571:B578" si="25">"      "&amp;A571</f>
+        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
         <v>97</v>
       </c>
-      <c r="B571" t="str">
+      <c r="B572" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">      LINES TERMINATED BY '\r\n'</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A572" t="s">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
         <v>98</v>
       </c>
-      <c r="B572" t="str">
+      <c r="B573" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">      IGNORE 1 LINES</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A573" t="s">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
         <v>397</v>
       </c>
-      <c r="B573" t="str">
+      <c r="B574" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">      (pracid, country, @e2015_imd_10, @ni2017_imd_10, @s2016_imd_10, @w2014_imd_10)</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A574" t="s">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
         <v>398</v>
       </c>
-      <c r="B574" t="str">
+      <c r="B575" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">      SET e2015_imd_10 = NULLIF(@e2015_imd_10,''),</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A575" t="s">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
         <v>399</v>
       </c>
-      <c r="B575" t="str">
+      <c r="B576" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">      ni2017_imd_10 = NULLIF(@ni2017_imd_10,''),</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A576" t="s">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
         <v>400</v>
       </c>
-      <c r="B576" t="str">
+      <c r="B577" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">      s2016_imd_10 = NULLIF(@s2016_imd_10,''),</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A577" t="s">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
         <v>529</v>
       </c>
-      <c r="B577" t="str">
+      <c r="B578" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">      w2014_imd_10 = NULLIF(@w2014_imd_10,'')</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B578" t="s">
-        <v>530</v>
-      </c>
-    </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B579" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B580" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B581" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B582" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A582" t="s">
-        <v>401</v>
-      </c>
-      <c r="B582" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>472</v>
-      </c>
-      <c r="B583" t="str">
-        <f t="shared" ref="B583:B610" si="26">"      "&amp;A583</f>
-        <v xml:space="preserve">      (patid BIGINT UNSIGNED NOT NULL,</v>
+        <v>401</v>
+      </c>
+      <c r="B583" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
+        <v>472</v>
+      </c>
+      <c r="B584" t="str">
+        <f t="shared" ref="B584:B611" si="26">"      "&amp;A584</f>
+        <v xml:space="preserve">      (patid BIGINT UNSIGNED NOT NULL,</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
         <v>3</v>
       </c>
-      <c r="B584" t="str">
+      <c r="B585" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      pracid MEDIUMINT,</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A585" t="s">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
         <v>402</v>
       </c>
-      <c r="B585" t="str">
+      <c r="B586" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      gen_death_id BIGINT UNSIGNED,</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A586" t="s">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
         <v>403</v>
       </c>
-      <c r="B586" t="str">
+      <c r="B587" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      n_patid_death SMALLINT,</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A587" t="s">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
         <v>186</v>
       </c>
-      <c r="B587" t="str">
+      <c r="B588" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      match_rank TINYINT,</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A588" t="s">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
         <v>404</v>
       </c>
-      <c r="B588" t="str">
+      <c r="B589" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      dor DATE,</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A589" t="s">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
         <v>405</v>
       </c>
-      <c r="B589" t="str">
+      <c r="B590" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      dod DATE,</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A590" t="s">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
         <v>406</v>
       </c>
-      <c r="B590" t="str">
+      <c r="B591" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      dod_partial SMALLINT,</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A591" t="s">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
         <v>407</v>
       </c>
-      <c r="B591" t="str">
+      <c r="B592" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      nhs_indicator TINYINT,</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A592" t="s">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
         <v>408</v>
       </c>
-      <c r="B592" t="str">
+      <c r="B593" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      pod_category VARCHAR(21),</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A593" t="s">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
         <v>409</v>
       </c>
-      <c r="B593" t="str">
+      <c r="B594" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause VARCHAR(5),</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A594" t="s">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
         <v>410</v>
       </c>
-      <c r="B594" t="str">
+      <c r="B595" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause1 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A595" t="s">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
         <v>411</v>
       </c>
-      <c r="B595" t="str">
+      <c r="B596" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause2 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A596" t="s">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
         <v>412</v>
       </c>
-      <c r="B596" t="str">
+      <c r="B597" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause3 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A597" t="s">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
         <v>413</v>
       </c>
-      <c r="B597" t="str">
+      <c r="B598" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause4 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A598" t="s">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
         <v>414</v>
       </c>
-      <c r="B598" t="str">
+      <c r="B599" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause5 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A599" t="s">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
         <v>415</v>
       </c>
-      <c r="B599" t="str">
+      <c r="B600" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause6 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A600" t="s">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
         <v>416</v>
       </c>
-      <c r="B600" t="str">
+      <c r="B601" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause7 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A601" t="s">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
         <v>417</v>
       </c>
-      <c r="B601" t="str">
+      <c r="B602" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause8 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A602" t="s">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
         <v>418</v>
       </c>
-      <c r="B602" t="str">
+      <c r="B603" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause9 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A603" t="s">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
         <v>419</v>
       </c>
-      <c r="B603" t="str">
+      <c r="B604" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause10 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A604" t="s">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
         <v>420</v>
       </c>
-      <c r="B604" t="str">
+      <c r="B605" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause11 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A605" t="s">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
         <v>421</v>
       </c>
-      <c r="B605" t="str">
+      <c r="B606" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause12 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A606" t="s">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
         <v>422</v>
       </c>
-      <c r="B606" t="str">
+      <c r="B607" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause13 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A607" t="s">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
         <v>423</v>
       </c>
-      <c r="B607" t="str">
+      <c r="B608" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause14 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A608" t="s">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
         <v>424</v>
       </c>
-      <c r="B608" t="str">
+      <c r="B609" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      cause15 VARCHAR(5),</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A609" t="s">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
         <v>187</v>
       </c>
-      <c r="B609" t="str">
+      <c r="B610" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      PRIMARY KEY (patid))</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A610" t="s">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
         <v>467</v>
       </c>
-      <c r="B610" t="str">
+      <c r="B611" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">      CHARSET=latin1 COLLATE=latin1_general_ci</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B611" t="s">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B612" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A612" t="s">
-        <v>425</v>
-      </c>
-      <c r="B612" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B613" t="s">
-        <v>533</v>
+        <v>469</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>96</v>
-      </c>
-      <c r="B614" t="str">
-        <f t="shared" ref="B614:B637" si="27">"      "&amp;A614</f>
-        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+        <v>426</v>
+      </c>
+      <c r="B614" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
+        <v>96</v>
+      </c>
+      <c r="B615" t="str">
+        <f t="shared" ref="B615:B638" si="27">"      "&amp;A615</f>
+        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
         <v>97</v>
       </c>
-      <c r="B615" t="str">
+      <c r="B616" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      LINES TERMINATED BY '\r\n'</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A616" t="s">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
         <v>98</v>
       </c>
-      <c r="B616" t="str">
+      <c r="B617" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      IGNORE 1 LINES</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A617" t="s">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
         <v>427</v>
       </c>
-      <c r="B617" t="str">
+      <c r="B618" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      (patid, pracid, gen_death_id, n_patid_death, match_rank, @dor, @dod, @dod_partial, nhs_indicator, @pod_category, @cause, @cause1, @cause2, @cause3, @cause4, @cause5, @cause6, @cause7, @cause8, @cause9, @cause10, @cause11, @cause12, @cause13, @cause14, @cause15)</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A618" t="s">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
         <v>428</v>
       </c>
-      <c r="B618" t="str">
+      <c r="B619" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      SET dor = STR_TO_DATE(@dor,'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A619" t="s">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
         <v>429</v>
       </c>
-      <c r="B619" t="str">
+      <c r="B620" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      dod = STR_TO_DATE(NULLIF(@dod,''),'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A620" t="s">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
         <v>430</v>
       </c>
-      <c r="B620" t="str">
+      <c r="B621" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      dod_partial = IF(@dod_partial='' OR @dod_partial='--',NULL,SUBSTR(@dod_partial,1,4)),</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A621" t="s">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
         <v>431</v>
       </c>
-      <c r="B621" t="str">
+      <c r="B622" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      pod_category = NULLIF(@pod_category,''),</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A622" t="s">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
         <v>432</v>
       </c>
-      <c r="B622" t="str">
+      <c r="B623" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause = NULLIF(@cause,''),</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A623" t="s">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
         <v>433</v>
       </c>
-      <c r="B623" t="str">
+      <c r="B624" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause1 = NULLIF(@cause1,''),</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A624" t="s">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
         <v>434</v>
       </c>
-      <c r="B624" t="str">
+      <c r="B625" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause2 = NULLIF(@cause2,''),</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A625" t="s">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
         <v>435</v>
       </c>
-      <c r="B625" t="str">
+      <c r="B626" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause3 = NULLIF(@cause3,''),</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A626" t="s">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
         <v>436</v>
       </c>
-      <c r="B626" t="str">
+      <c r="B627" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause4 = NULLIF(@cause4,''),</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A627" t="s">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
         <v>437</v>
       </c>
-      <c r="B627" t="str">
+      <c r="B628" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause5 = NULLIF(@cause5,''),</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A628" t="s">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
         <v>438</v>
       </c>
-      <c r="B628" t="str">
+      <c r="B629" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause6 = NULLIF(@cause6,''),</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A629" t="s">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
         <v>439</v>
       </c>
-      <c r="B629" t="str">
+      <c r="B630" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause7 = NULLIF(@cause7,''),</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A630" t="s">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
         <v>440</v>
       </c>
-      <c r="B630" t="str">
+      <c r="B631" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause8 = NULLIF(@cause8,''),</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A631" t="s">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
         <v>441</v>
       </c>
-      <c r="B631" t="str">
+      <c r="B632" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause9 = NULLIF(@cause9,''),</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A632" t="s">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
         <v>442</v>
       </c>
-      <c r="B632" t="str">
+      <c r="B633" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause10 = NULLIF(@cause10,''),</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A633" t="s">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
         <v>443</v>
       </c>
-      <c r="B633" t="str">
+      <c r="B634" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause11 = NULLIF(@cause11,''),</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A634" t="s">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
         <v>444</v>
       </c>
-      <c r="B634" t="str">
+      <c r="B635" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause12 = NULLIF(@cause12,''),</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A635" t="s">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
         <v>445</v>
       </c>
-      <c r="B635" t="str">
+      <c r="B636" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause13 = NULLIF(@cause13,''),</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A636" t="s">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
         <v>446</v>
       </c>
-      <c r="B636" t="str">
+      <c r="B637" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause14 = NULLIF(@cause14,''),</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A637" t="s">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
         <v>534</v>
       </c>
-      <c r="B637" t="str">
+      <c r="B638" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">      cause15 = NULLIF(@cause15,'')</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B638" t="s">
-        <v>535</v>
-      </c>
-    </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B639" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B640" t="s">
-        <v>536</v>
+        <v>463</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B641" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B642" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A642" t="s">
-        <v>447</v>
-      </c>
-      <c r="B642" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>2</v>
-      </c>
-      <c r="B643" t="str">
-        <f t="shared" ref="B643:B654" si="28">"      "&amp;A643</f>
-        <v xml:space="preserve">      (patid BIGINT UNSIGNED,</v>
+        <v>447</v>
+      </c>
+      <c r="B643" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
+        <v>2</v>
+      </c>
+      <c r="B644" t="str">
+        <f t="shared" ref="B644:B655" si="28">"      "&amp;A644</f>
+        <v xml:space="preserve">      (patid BIGINT UNSIGNED,</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
         <v>3</v>
       </c>
-      <c r="B644" t="str">
+      <c r="B645" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">      pracid MEDIUMINT,</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A645" t="s">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
         <v>448</v>
       </c>
-      <c r="B645" t="str">
+      <c r="B646" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">      n_patid_spec SMALLINT,</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A646" t="s">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
         <v>449</v>
       </c>
-      <c r="B646" t="str">
+      <c r="B647" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">      pseudo_specimen_id MEDIUMINT,</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A647" t="s">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
         <v>450</v>
       </c>
-      <c r="B647" t="str">
+      <c r="B648" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">      organism_species_name CHAR(33),</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A648" t="s">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
         <v>451</v>
       </c>
-      <c r="B648" t="str">
+      <c r="B649" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">      lab_report_date DATE,</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A649" t="s">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
         <v>452</v>
       </c>
-      <c r="B649" t="str">
+      <c r="B650" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">      age_in_years SMALLINT,</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A650" t="s">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
         <v>453</v>
       </c>
-      <c r="B650" t="str">
+      <c r="B651" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">      reporting_lab_id SMALLINT,</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A651" t="s">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
         <v>454</v>
       </c>
-      <c r="B651" t="str">
+      <c r="B652" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">      specimen_date DATE,</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A652" t="s">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
         <v>455</v>
       </c>
-      <c r="B652" t="str">
+      <c r="B653" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">      care_home BOOL DEFAULT NULL,</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A653" t="s">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
         <v>92</v>
       </c>
-      <c r="B653" t="str">
+      <c r="B654" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">      primary_key SMALLINT PRIMARY KEY AUTO_INCREMENT)</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A654" t="s">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
         <v>467</v>
       </c>
-      <c r="B654" t="str">
+      <c r="B655" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">      CHARSET=latin1 COLLATE=latin1_general_ci</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B655" t="s">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B656" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A656" t="s">
-        <v>456</v>
-      </c>
-      <c r="B656" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B657" t="s">
-        <v>968</v>
+        <v>469</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>96</v>
-      </c>
-      <c r="B658" t="str">
-        <f t="shared" ref="B658:B665" si="29">"      "&amp;A658</f>
-        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+        <v>457</v>
+      </c>
+      <c r="B658" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
+        <v>96</v>
+      </c>
+      <c r="B659" t="str">
+        <f t="shared" ref="B659:B666" si="29">"      "&amp;A659</f>
+        <v xml:space="preserve">      FIELDS TERMINATED BY '\t'</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
         <v>97</v>
       </c>
-      <c r="B659" t="str">
+      <c r="B660" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">      LINES TERMINATED BY '\r\n'</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A660" t="s">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
         <v>98</v>
       </c>
-      <c r="B660" t="str">
+      <c r="B661" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">      IGNORE 1 LINES</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A661" t="s">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
         <v>458</v>
       </c>
-      <c r="B661" t="str">
+      <c r="B662" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">      (patid, pracid, n_patid_spec, pseudo_specimen_id, organism_species_name, @lab_report_date, @age_in_years, reporting_lab_id, @specimen_date, @care_home)</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A662" t="s">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
         <v>459</v>
       </c>
-      <c r="B662" t="str">
+      <c r="B663" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">      SET lab_report_date = STR_TO_DATE(@lab_report_date,'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A663" t="s">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
         <v>460</v>
       </c>
-      <c r="B663" t="str">
+      <c r="B664" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">      age_in_years = IF(@age_in_years='' OR @age_in_years='-1',NULL,@age_in_years),</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A664" t="s">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
         <v>461</v>
       </c>
-      <c r="B664" t="str">
+      <c r="B665" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">      specimen_date = STR_TO_DATE(@specimen_date,'%d/%m/%Y'),</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A665" t="s">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
         <v>538</v>
       </c>
-      <c r="B665" t="str">
+      <c r="B666" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">      care_home = IF(@care_home='FALSE',0,IF(@care_home='TRUE',1,IF(@care_home='',NULL,@care_home)))</v>
       </c>
@@ -14442,8 +14454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="F239" sqref="F239:F248"/>
+    <sheetView topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30097,18 +30109,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30131,26 +30143,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7B804F-A793-4A8C-8343-5A17D028306C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09F3D20F-4409-41DC-8022-B973B971AB07}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="4b8f695c-c865-44f8-899f-0021c83a7e4b"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="05882578-497b-4cf7-81dc-3721c52819b3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7B804F-A793-4A8C-8343-5A17D028306C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>